--- a/ccpa-metrics.xlsx
+++ b/ccpa-metrics.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szimmeck/Desktop/Code/ccpa-metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4326E2D0-9CDC-5549-BE41-51B61CBE57F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B63E0-D9A3-DB4C-A4C9-A8A86C9C6CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{44A17BD5-676E-7148-B323-66434D58158A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{44A17BD5-676E-7148-B323-66434D58158A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ccpa-metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,9 +34,248 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="78">
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Access Requests Received</t>
+  </si>
+  <si>
+    <t>Access Requests Denied</t>
+  </si>
+  <si>
+    <t>Deletion Requests Received</t>
+  </si>
+  <si>
+    <t>Deletion Requests Denied</t>
+  </si>
+  <si>
+    <t>Do Not Sell Requests Received</t>
+  </si>
+  <si>
+    <t>Do Not Sell Requests Denied</t>
+  </si>
+  <si>
+    <t>Access Requests Median Days</t>
+  </si>
+  <si>
+    <t>Deletion Requests Median Days</t>
+  </si>
+  <si>
+    <t>Do Not Sell Requests Median Days</t>
+  </si>
+  <si>
+    <t>Access Requests Mean Days</t>
+  </si>
+  <si>
+    <t>Deletion Requests Mean Days</t>
+  </si>
+  <si>
+    <t>Do Not Sell Requests Mean Days</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Business ID</t>
+  </si>
+  <si>
+    <t>Business Sector</t>
+  </si>
+  <si>
+    <t>Requests by Non-California Residents Included</t>
+  </si>
+  <si>
+    <t>Access Requests (Partly) Automated</t>
+  </si>
+  <si>
+    <t>Deletion Requests (Partly) Automated</t>
+  </si>
+  <si>
+    <t>Do Not Sell Requests (Partly) Automated</t>
+  </si>
+  <si>
+    <t>Total Number Of Requests Complied With When Not Broken Down</t>
+  </si>
+  <si>
+    <t>Total Number Of Requests Received When Not Broken Down</t>
+  </si>
+  <si>
+    <t>Mean Days When Not Broken Down</t>
+  </si>
+  <si>
+    <t>Median Days When Not Broken Down</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>https://www.accenture.com/us-en/about/ccpa-metrics</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Coverage Period Beginning Date</t>
+  </si>
+  <si>
+    <t>Coverage Period End Date</t>
+  </si>
+  <si>
+    <t>Activision</t>
+  </si>
+  <si>
+    <t>https://www.activision.com/legal/ccpa-report</t>
+  </si>
+  <si>
+    <t>Claims To Not Sell</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Deletion Requests (Partly) Complied With</t>
+  </si>
+  <si>
+    <t>Access Requests (Partly) Complied With</t>
+  </si>
+  <si>
+    <t>Do Not Sell Requests (Partly) Complied With</t>
+  </si>
+  <si>
+    <t>If a site states that the average time a request is complied with is "less than 1 day" or some similar time period, the period is counted as 1 day</t>
+  </si>
+  <si>
+    <t>All table entries are based on explicit statements on a site; N/A means that a site did not explictly mention the practice in question</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Acxiom</t>
+  </si>
+  <si>
+    <t>https://www.acxiom.com/about-us/privacy/highlights-for-us-products-privacy-policy/</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>"This number [median days for Do Not Sell request processing] reflects the number of days until it is processed. We typically respond and start honoring the request within two (2) days"</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>https://www.adobe.com/privacy/ca-rights.html</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.com/help/article/3073/ccpa-reporting</t>
+  </si>
+  <si>
+    <t>Gig Economy</t>
+  </si>
+  <si>
+    <t>Total Number Of Access Requests Received When Not Broken Down</t>
+  </si>
+  <si>
+    <t>Total Number Of Deletion Requests Received When Not Broken Down</t>
+  </si>
+  <si>
+    <t>Total Number Of Opt Out Requests Received When Not Broken Down</t>
+  </si>
+  <si>
+    <t>Reason For Denying Request: Legal, Compliance, and Security</t>
+  </si>
+  <si>
+    <t>Reason For Denying Request: Data Not Available</t>
+  </si>
+  <si>
+    <t>Albertsons</t>
+  </si>
+  <si>
+    <t>https://www.albertsonscompanies.com/about-us/our-policies/privacy-policy/albertsons-ccpa-metrics-report.html</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>"For fraud purposes, consumers are required to click on a confirmation link sent to their email address after making a CCPA request. Some consumers failed to click on the confirmation link before the expiration date. Additionally, some consumers made multiple CCPA request submissions while their initial requests were still pending. Those subsequent requests were closed. These consumer requests (i.e., expired links and multiple requests) are captured in the number of CCPA requests received category. However, they are not reflected in the number of requests fulfilled or denied categories."</t>
+  </si>
+  <si>
+    <t>Reason For Denying Requests: Verification And Fraud Protection</t>
+  </si>
+  <si>
+    <t>Reason For Denying Request: Non-California Resident And CCPA Exceptions</t>
+  </si>
+  <si>
+    <t>Allstate</t>
+  </si>
+  <si>
+    <t>https://www.infoarmor.com/privacy-policy</t>
+  </si>
+  <si>
+    <t>Financial And Insurance</t>
+  </si>
+  <si>
+    <t>Advertising And Data Brokerage</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/help/customer/display.html?nodeId=GC5HB5DVMU5Y8CJ2</t>
+  </si>
+  <si>
+    <t>Reason For Denying Request: Duplicate, Cancelation, And Erroneus Requests</t>
+  </si>
+  <si>
+    <t>Ancestry</t>
+  </si>
+  <si>
+    <t>https://www.ancestry.com/cs/legal/ccpa-reporting-metrics</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/legal/privacy/california/</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Apple also provides metrics for "Requests for Categories of Personal Information." The metrics provided do not include the metrics for Shazam, which are broken out by Apple separately.</t>
+  </si>
+  <si>
+    <t>Assurant</t>
+  </si>
+  <si>
+    <t>https://www.assurant.com/dataprotection/usa/ccpa-metrics</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,13 +283,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,13 +334,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,12 +664,6159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7871F688-3E99-0C47-9465-B97002998DFD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AL126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="40" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="52.6640625" customWidth="1"/>
+    <col min="36" max="36" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <v>565</v>
+      </c>
+      <c r="H2" s="3">
+        <v>564</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
+        <v>905</v>
+      </c>
+      <c r="M2" s="3">
+        <v>804</v>
+      </c>
+      <c r="N2" s="3">
+        <v>101</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3">
+        <v>55</v>
+      </c>
+      <c r="R2" s="3">
+        <v>33</v>
+      </c>
+      <c r="S2" s="3">
+        <v>22</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3">
+        <v>16.91</v>
+      </c>
+      <c r="X2" s="3">
+        <v>15.78</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>213</v>
+      </c>
+      <c r="H3" s="3">
+        <v>193</v>
+      </c>
+      <c r="I3" s="3">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>963</v>
+      </c>
+      <c r="M3" s="3">
+        <v>886</v>
+      </c>
+      <c r="N3" s="3">
+        <v>77</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
+        <v>271428</v>
+      </c>
+      <c r="R3" s="3">
+        <v>271428</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3">
+        <v>24</v>
+      </c>
+      <c r="X3" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>483</v>
+      </c>
+      <c r="H4" s="3">
+        <v>218</v>
+      </c>
+      <c r="I4" s="3">
+        <v>265</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>300</v>
+      </c>
+      <c r="M4" s="3">
+        <v>141</v>
+      </c>
+      <c r="N4" s="3">
+        <v>159</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
+        <v>19994</v>
+      </c>
+      <c r="R4" s="3">
+        <v>19994</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="4">
+        <v>44197</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>44377</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3">
+        <v>44</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>126731</v>
+      </c>
+      <c r="M5" s="3">
+        <v>126731</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
+        <v>35</v>
+      </c>
+      <c r="R5" s="3">
+        <v>35</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3">
+        <v>28</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>796</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>9278</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3">
+        <v>19.88</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>894</v>
+      </c>
+      <c r="H7" s="3">
+        <v>384</v>
+      </c>
+      <c r="I7" s="3">
+        <v>368</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>1466</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1240</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
+        <v>2090</v>
+      </c>
+      <c r="R7" s="3">
+        <v>971</v>
+      </c>
+      <c r="S7" s="3">
+        <v>841</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3">
+        <v>25</v>
+      </c>
+      <c r="X7" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3">
+        <v>23</v>
+      </c>
+      <c r="X8" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>100960</v>
+      </c>
+      <c r="H9" s="3">
+        <v>83531</v>
+      </c>
+      <c r="I9" s="3">
+        <v>17429</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>589061</v>
+      </c>
+      <c r="M9" s="3">
+        <v>568805</v>
+      </c>
+      <c r="N9" s="3">
+        <v>20256</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>28258</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>77230</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3">
+        <v>14</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="4">
+        <v>44013</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>669030</v>
+      </c>
+      <c r="H11" s="3">
+        <v>645158</v>
+      </c>
+      <c r="I11" s="3">
+        <v>23872</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>294764</v>
+      </c>
+      <c r="M11" s="3">
+        <v>286561</v>
+      </c>
+      <c r="N11" s="3">
+        <v>8203</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3">
+        <v>2</v>
+      </c>
+      <c r="X11" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>21</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>13</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>12</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3">
+        <v>34</v>
+      </c>
+      <c r="X12" s="3">
+        <v>14</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK40" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK41" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK42" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK43" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK44" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK45" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK46" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK47" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK48" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK49" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK50" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK51" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK52" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK53" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK54" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK55" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK56" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK57" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK58" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK59" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK60" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="3"/>
+      <c r="AH61" s="3"/>
+      <c r="AI61" s="3"/>
+      <c r="AJ61" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK61" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3"/>
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK62" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK63" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="3"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK64" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+      <c r="AH65" s="3"/>
+      <c r="AI65" s="3"/>
+      <c r="AJ65" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK65" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="3"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK66" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK67" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="3"/>
+      <c r="AH68" s="3"/>
+      <c r="AI68" s="3"/>
+      <c r="AJ68" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK68" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="3"/>
+      <c r="AH69" s="3"/>
+      <c r="AI69" s="3"/>
+      <c r="AJ69" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK69" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="3"/>
+      <c r="AJ70" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK70" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="3"/>
+      <c r="AI71" s="3"/>
+      <c r="AJ71" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK71" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
+      <c r="AG72" s="3"/>
+      <c r="AH72" s="3"/>
+      <c r="AI72" s="3"/>
+      <c r="AJ72" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK72" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="3"/>
+      <c r="AJ73" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK73" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+      <c r="AH74" s="3"/>
+      <c r="AI74" s="3"/>
+      <c r="AJ74" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK74" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
+      <c r="AH75" s="3"/>
+      <c r="AI75" s="3"/>
+      <c r="AJ75" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK75" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+      <c r="AJ76" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK76" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK77" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3"/>
+      <c r="AI78" s="3"/>
+      <c r="AJ78" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK78" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
+      <c r="AI79" s="3"/>
+      <c r="AJ79" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK79" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
+      <c r="AI80" s="3"/>
+      <c r="AJ80" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK80" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="3"/>
+      <c r="AH81" s="3"/>
+      <c r="AI81" s="3"/>
+      <c r="AJ81" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK81" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="3"/>
+      <c r="AI82" s="3"/>
+      <c r="AJ82" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK82" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
+      <c r="AJ83" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK83" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+      <c r="AG84" s="3"/>
+      <c r="AH84" s="3"/>
+      <c r="AI84" s="3"/>
+      <c r="AJ84" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK84" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+      <c r="AD85" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE85" s="3"/>
+      <c r="AF85" s="3"/>
+      <c r="AG85" s="3"/>
+      <c r="AH85" s="3"/>
+      <c r="AI85" s="3"/>
+      <c r="AJ85" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK85" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE86" s="3"/>
+      <c r="AF86" s="3"/>
+      <c r="AG86" s="3"/>
+      <c r="AH86" s="3"/>
+      <c r="AI86" s="3"/>
+      <c r="AJ86" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK86" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="3"/>
+      <c r="AG87" s="3"/>
+      <c r="AH87" s="3"/>
+      <c r="AI87" s="3"/>
+      <c r="AJ87" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK87" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="3"/>
+      <c r="AG88" s="3"/>
+      <c r="AH88" s="3"/>
+      <c r="AI88" s="3"/>
+      <c r="AJ88" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK88" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="3"/>
+      <c r="AG89" s="3"/>
+      <c r="AH89" s="3"/>
+      <c r="AI89" s="3"/>
+      <c r="AJ89" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK89" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+      <c r="AH90" s="3"/>
+      <c r="AI90" s="3"/>
+      <c r="AJ90" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK90" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+      <c r="AD91" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE91" s="3"/>
+      <c r="AF91" s="3"/>
+      <c r="AG91" s="3"/>
+      <c r="AH91" s="3"/>
+      <c r="AI91" s="3"/>
+      <c r="AJ91" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK91" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="3"/>
+      <c r="AG92" s="3"/>
+      <c r="AH92" s="3"/>
+      <c r="AI92" s="3"/>
+      <c r="AJ92" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK92" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
+      <c r="AD93" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE93" s="3"/>
+      <c r="AF93" s="3"/>
+      <c r="AG93" s="3"/>
+      <c r="AH93" s="3"/>
+      <c r="AI93" s="3"/>
+      <c r="AJ93" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK93" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3"/>
+      <c r="AC94" s="3"/>
+      <c r="AD94" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE94" s="3"/>
+      <c r="AF94" s="3"/>
+      <c r="AG94" s="3"/>
+      <c r="AH94" s="3"/>
+      <c r="AI94" s="3"/>
+      <c r="AJ94" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK94" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+      <c r="AG95" s="3"/>
+      <c r="AH95" s="3"/>
+      <c r="AI95" s="3"/>
+      <c r="AJ95" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK95" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+      <c r="AD96" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE96" s="3"/>
+      <c r="AF96" s="3"/>
+      <c r="AG96" s="3"/>
+      <c r="AH96" s="3"/>
+      <c r="AI96" s="3"/>
+      <c r="AJ96" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK96" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
+      <c r="AD97" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE97" s="3"/>
+      <c r="AF97" s="3"/>
+      <c r="AG97" s="3"/>
+      <c r="AH97" s="3"/>
+      <c r="AI97" s="3"/>
+      <c r="AJ97" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK97" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="3"/>
+      <c r="AC98" s="3"/>
+      <c r="AD98" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE98" s="3"/>
+      <c r="AF98" s="3"/>
+      <c r="AG98" s="3"/>
+      <c r="AH98" s="3"/>
+      <c r="AI98" s="3"/>
+      <c r="AJ98" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK98" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3"/>
+      <c r="AC99" s="3"/>
+      <c r="AD99" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE99" s="3"/>
+      <c r="AF99" s="3"/>
+      <c r="AG99" s="3"/>
+      <c r="AH99" s="3"/>
+      <c r="AI99" s="3"/>
+      <c r="AJ99" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK99" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3"/>
+      <c r="AC100" s="3"/>
+      <c r="AD100" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE100" s="3"/>
+      <c r="AF100" s="3"/>
+      <c r="AG100" s="3"/>
+      <c r="AH100" s="3"/>
+      <c r="AI100" s="3"/>
+      <c r="AJ100" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK100" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+      <c r="AA101" s="3"/>
+      <c r="AB101" s="3"/>
+      <c r="AC101" s="3"/>
+      <c r="AD101" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE101" s="3"/>
+      <c r="AF101" s="3"/>
+      <c r="AG101" s="3"/>
+      <c r="AH101" s="3"/>
+      <c r="AI101" s="3"/>
+      <c r="AJ101" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK101" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
+      <c r="AA102" s="3"/>
+      <c r="AB102" s="3"/>
+      <c r="AC102" s="3"/>
+      <c r="AD102" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE102" s="3"/>
+      <c r="AF102" s="3"/>
+      <c r="AG102" s="3"/>
+      <c r="AH102" s="3"/>
+      <c r="AI102" s="3"/>
+      <c r="AJ102" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK102" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
+      <c r="AB103" s="3"/>
+      <c r="AC103" s="3"/>
+      <c r="AD103" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE103" s="3"/>
+      <c r="AF103" s="3"/>
+      <c r="AG103" s="3"/>
+      <c r="AH103" s="3"/>
+      <c r="AI103" s="3"/>
+      <c r="AJ103" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK103" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
+      <c r="AA104" s="3"/>
+      <c r="AB104" s="3"/>
+      <c r="AC104" s="3"/>
+      <c r="AD104" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE104" s="3"/>
+      <c r="AF104" s="3"/>
+      <c r="AG104" s="3"/>
+      <c r="AH104" s="3"/>
+      <c r="AI104" s="3"/>
+      <c r="AJ104" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK104" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
+      <c r="AB105" s="3"/>
+      <c r="AC105" s="3"/>
+      <c r="AD105" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE105" s="3"/>
+      <c r="AF105" s="3"/>
+      <c r="AG105" s="3"/>
+      <c r="AH105" s="3"/>
+      <c r="AI105" s="3"/>
+      <c r="AJ105" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK105" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+      <c r="AA106" s="3"/>
+      <c r="AB106" s="3"/>
+      <c r="AC106" s="3"/>
+      <c r="AD106" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE106" s="3"/>
+      <c r="AF106" s="3"/>
+      <c r="AG106" s="3"/>
+      <c r="AH106" s="3"/>
+      <c r="AI106" s="3"/>
+      <c r="AJ106" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK106" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+      <c r="AA107" s="3"/>
+      <c r="AB107" s="3"/>
+      <c r="AC107" s="3"/>
+      <c r="AD107" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE107" s="3"/>
+      <c r="AF107" s="3"/>
+      <c r="AG107" s="3"/>
+      <c r="AH107" s="3"/>
+      <c r="AI107" s="3"/>
+      <c r="AJ107" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK107" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="3"/>
+      <c r="AB108" s="3"/>
+      <c r="AC108" s="3"/>
+      <c r="AD108" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE108" s="3"/>
+      <c r="AF108" s="3"/>
+      <c r="AG108" s="3"/>
+      <c r="AH108" s="3"/>
+      <c r="AI108" s="3"/>
+      <c r="AJ108" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK108" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="3"/>
+      <c r="AB109" s="3"/>
+      <c r="AC109" s="3"/>
+      <c r="AD109" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE109" s="3"/>
+      <c r="AF109" s="3"/>
+      <c r="AG109" s="3"/>
+      <c r="AH109" s="3"/>
+      <c r="AI109" s="3"/>
+      <c r="AJ109" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK109" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="3"/>
+      <c r="AC110" s="3"/>
+      <c r="AD110" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE110" s="3"/>
+      <c r="AF110" s="3"/>
+      <c r="AG110" s="3"/>
+      <c r="AH110" s="3"/>
+      <c r="AI110" s="3"/>
+      <c r="AJ110" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK110" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
+      <c r="AB111" s="3"/>
+      <c r="AC111" s="3"/>
+      <c r="AD111" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE111" s="3"/>
+      <c r="AF111" s="3"/>
+      <c r="AG111" s="3"/>
+      <c r="AH111" s="3"/>
+      <c r="AI111" s="3"/>
+      <c r="AJ111" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK111" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+      <c r="AA112" s="3"/>
+      <c r="AB112" s="3"/>
+      <c r="AC112" s="3"/>
+      <c r="AD112" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE112" s="3"/>
+      <c r="AF112" s="3"/>
+      <c r="AG112" s="3"/>
+      <c r="AH112" s="3"/>
+      <c r="AI112" s="3"/>
+      <c r="AJ112" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK112" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+      <c r="AC113" s="3"/>
+      <c r="AD113" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE113" s="3"/>
+      <c r="AF113" s="3"/>
+      <c r="AG113" s="3"/>
+      <c r="AH113" s="3"/>
+      <c r="AI113" s="3"/>
+      <c r="AJ113" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK113" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
+      <c r="AC114" s="3"/>
+      <c r="AD114" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE114" s="3"/>
+      <c r="AF114" s="3"/>
+      <c r="AG114" s="3"/>
+      <c r="AH114" s="3"/>
+      <c r="AI114" s="3"/>
+      <c r="AJ114" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK114" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+      <c r="AA115" s="3"/>
+      <c r="AB115" s="3"/>
+      <c r="AC115" s="3"/>
+      <c r="AD115" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE115" s="3"/>
+      <c r="AF115" s="3"/>
+      <c r="AG115" s="3"/>
+      <c r="AH115" s="3"/>
+      <c r="AI115" s="3"/>
+      <c r="AJ115" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK115" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="3"/>
+      <c r="AC116" s="3"/>
+      <c r="AD116" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE116" s="3"/>
+      <c r="AF116" s="3"/>
+      <c r="AG116" s="3"/>
+      <c r="AH116" s="3"/>
+      <c r="AI116" s="3"/>
+      <c r="AJ116" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK116" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="3"/>
+      <c r="AC117" s="3"/>
+      <c r="AD117" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE117" s="3"/>
+      <c r="AF117" s="3"/>
+      <c r="AG117" s="3"/>
+      <c r="AH117" s="3"/>
+      <c r="AI117" s="3"/>
+      <c r="AJ117" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK117" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
+      <c r="AA118" s="3"/>
+      <c r="AB118" s="3"/>
+      <c r="AC118" s="3"/>
+      <c r="AD118" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE118" s="3"/>
+      <c r="AF118" s="3"/>
+      <c r="AG118" s="3"/>
+      <c r="AH118" s="3"/>
+      <c r="AI118" s="3"/>
+      <c r="AJ118" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK118" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="3"/>
+      <c r="AA119" s="3"/>
+      <c r="AB119" s="3"/>
+      <c r="AC119" s="3"/>
+      <c r="AD119" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE119" s="3"/>
+      <c r="AF119" s="3"/>
+      <c r="AG119" s="3"/>
+      <c r="AH119" s="3"/>
+      <c r="AI119" s="3"/>
+      <c r="AJ119" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK119" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
+      <c r="AA120" s="3"/>
+      <c r="AB120" s="3"/>
+      <c r="AC120" s="3"/>
+      <c r="AD120" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE120" s="3"/>
+      <c r="AF120" s="3"/>
+      <c r="AG120" s="3"/>
+      <c r="AH120" s="3"/>
+      <c r="AI120" s="3"/>
+      <c r="AJ120" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK120" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
+      <c r="AB121" s="3"/>
+      <c r="AC121" s="3"/>
+      <c r="AD121" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE121" s="3"/>
+      <c r="AF121" s="3"/>
+      <c r="AG121" s="3"/>
+      <c r="AH121" s="3"/>
+      <c r="AI121" s="3"/>
+      <c r="AJ121" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK121" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
+      <c r="AA122" s="3"/>
+      <c r="AB122" s="3"/>
+      <c r="AC122" s="3"/>
+      <c r="AD122" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE122" s="3"/>
+      <c r="AF122" s="3"/>
+      <c r="AG122" s="3"/>
+      <c r="AH122" s="3"/>
+      <c r="AI122" s="3"/>
+      <c r="AJ122" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK122" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
+      <c r="AA123" s="3"/>
+      <c r="AB123" s="3"/>
+      <c r="AC123" s="3"/>
+      <c r="AD123" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE123" s="3"/>
+      <c r="AF123" s="3"/>
+      <c r="AG123" s="3"/>
+      <c r="AH123" s="3"/>
+      <c r="AI123" s="3"/>
+      <c r="AJ123" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK123" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL123" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3"/>
+      <c r="AC124" s="3"/>
+      <c r="AD124" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE124" s="3"/>
+      <c r="AF124" s="3"/>
+      <c r="AG124" s="3"/>
+      <c r="AH124" s="3"/>
+      <c r="AI124" s="3"/>
+      <c r="AJ124" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK124" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL124" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+      <c r="AA125" s="3"/>
+      <c r="AB125" s="3"/>
+      <c r="AC125" s="3"/>
+      <c r="AD125" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE125" s="3"/>
+      <c r="AF125" s="3"/>
+      <c r="AG125" s="3"/>
+      <c r="AH125" s="3"/>
+      <c r="AI125" s="3"/>
+      <c r="AJ125" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK125" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
+      <c r="AA126" s="3"/>
+      <c r="AB126" s="3"/>
+      <c r="AC126" s="3"/>
+      <c r="AD126" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE126" s="3"/>
+      <c r="AF126" s="3"/>
+      <c r="AG126" s="3"/>
+      <c r="AH126" s="3"/>
+      <c r="AI126" s="3"/>
+      <c r="AJ126" s="4">
+        <v>43831</v>
+      </c>
+      <c r="AK126" s="4">
+        <v>44196</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D6860488-59B0-A349-9FF6-AAF67CFA2C5B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{058C9370-CFB0-D145-8B5A-0EADA611E949}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E85C1758-C405-8E4A-A45F-E8ADFD8B835C}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{D49B9D4B-CB38-FC40-9CD4-98EAD87FB010}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{C8A858BE-C65B-A247-A565-83253B9F9DBB}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{461B689E-DE85-5D40-94D6-0FB5E5EE3C4F}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{495B5766-91FE-0948-8379-1572DC591FBD}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{AF45598A-E514-2C49-B2DE-5F648E4F9700}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{A5E272B7-0FD5-6D4B-A65F-DD3173CFA5AF}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{95C5779B-C934-0A42-A56A-0FE64772CDEA}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{769B880C-FD1B-CC40-8AED-AD35CCBC03DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EFEE2A-D6C7-5C44-8E8E-B31B0F976A16}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ccpa-metrics.xlsx
+++ b/ccpa-metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szimmeck/Desktop/Code/ccpa-metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B63E0-D9A3-DB4C-A4C9-A8A86C9C6CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC2C15-2E67-6F42-BAF1-A7631F823F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{44A17BD5-676E-7148-B323-66434D58158A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ccpa-metrics" sheetId="1" r:id="rId1"/>
     <sheet name="readme" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="237">
   <si>
     <t>Website</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Business Sector</t>
   </si>
   <si>
-    <t>Requests by Non-California Residents Included</t>
-  </si>
-  <si>
     <t>Access Requests (Partly) Automated</t>
   </si>
   <si>
@@ -148,12 +145,6 @@
     <t>Do Not Sell Requests (Partly) Complied With</t>
   </si>
   <si>
-    <t>If a site states that the average time a request is complied with is "less than 1 day" or some similar time period, the period is counted as 1 day</t>
-  </si>
-  <si>
-    <t>All table entries are based on explicit statements on a site; N/A means that a site did not explictly mention the practice in question</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -163,12 +154,6 @@
     <t>https://www.acxiom.com/about-us/privacy/highlights-for-us-products-privacy-policy/</t>
   </si>
   <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
     <t>"This number [median days for Do Not Sell request processing] reflects the number of days until it is processed. We typically respond and start honoring the request within two (2) days"</t>
   </si>
   <si>
@@ -187,9 +172,6 @@
     <t>https://www.airbnb.com/help/article/3073/ccpa-reporting</t>
   </si>
   <si>
-    <t>Gig Economy</t>
-  </si>
-  <si>
     <t>Total Number Of Access Requests Received When Not Broken Down</t>
   </si>
   <si>
@@ -199,9 +181,6 @@
     <t>Total Number Of Opt Out Requests Received When Not Broken Down</t>
   </si>
   <si>
-    <t>Reason For Denying Request: Legal, Compliance, and Security</t>
-  </si>
-  <si>
     <t>Reason For Denying Request: Data Not Available</t>
   </si>
   <si>
@@ -217,21 +196,12 @@
     <t>"For fraud purposes, consumers are required to click on a confirmation link sent to their email address after making a CCPA request. Some consumers failed to click on the confirmation link before the expiration date. Additionally, some consumers made multiple CCPA request submissions while their initial requests were still pending. Those subsequent requests were closed. These consumer requests (i.e., expired links and multiple requests) are captured in the number of CCPA requests received category. However, they are not reflected in the number of requests fulfilled or denied categories."</t>
   </si>
   <si>
-    <t>Reason For Denying Requests: Verification And Fraud Protection</t>
-  </si>
-  <si>
-    <t>Reason For Denying Request: Non-California Resident And CCPA Exceptions</t>
-  </si>
-  <si>
     <t>Allstate</t>
   </si>
   <si>
     <t>https://www.infoarmor.com/privacy-policy</t>
   </si>
   <si>
-    <t>Financial And Insurance</t>
-  </si>
-  <si>
     <t>Advertising And Data Brokerage</t>
   </si>
   <si>
@@ -244,9 +214,6 @@
     <t>https://www.amazon.com/gp/help/customer/display.html?nodeId=GC5HB5DVMU5Y8CJ2</t>
   </si>
   <si>
-    <t>Reason For Denying Request: Duplicate, Cancelation, And Erroneus Requests</t>
-  </si>
-  <si>
     <t>Ancestry</t>
   </si>
   <si>
@@ -269,6 +236,516 @@
   </si>
   <si>
     <t>https://www.assurant.com/dataprotection/usa/ccpa-metrics</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>https://about.att.com/csr/home/privacy/StateLawApproach/ccpa-metrics.html</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>BankOfAmerica</t>
+  </si>
+  <si>
+    <t>https://www.bankofamerica.com/content/documents/security/sheet-06-21-0220_a_hr_ada.pdf</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>https://cards.barclaycardus.com/content/dam/bcuspublic/privacy-policy/notices/CCPA%20Annual%20Metrics1.pdf</t>
+  </si>
+  <si>
+    <t>Reason For Denying Requests: Verification Or Fraud Protection</t>
+  </si>
+  <si>
+    <t>Reason For Denying Request: Legal, Compliance, Or Security</t>
+  </si>
+  <si>
+    <t>Barnes&amp;Noble</t>
+  </si>
+  <si>
+    <t>https://www.barnesandnoble.com/h/help/ccpa-requests</t>
+  </si>
+  <si>
+    <t>The numbers in the access requests do not add up and are possibly due to a calculation mistake.</t>
+  </si>
+  <si>
+    <t>BestBuy</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/privacy-policy/california-privacy-rights/pcmcat204400050063.c?id=pcmcat204400050063</t>
+  </si>
+  <si>
+    <t>At the time of the reporting 20 access requests and 54 deletion requests were still pending and, thus, are not included in the calculation of how many requests were complied with and denied.</t>
+  </si>
+  <si>
+    <t>www.beyondblueholdings.com/privacy-policy/</t>
+  </si>
+  <si>
+    <t>Bombora</t>
+  </si>
+  <si>
+    <t>https://bombora.com/wp-content/uploads/2021/07/CCPA-2020-Metrics.pdf</t>
+  </si>
+  <si>
+    <t>The total number of requests denied across all request types is 30.</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/content/privacy.html</t>
+  </si>
+  <si>
+    <t>https://mydata.capitalone.com/transparency-report</t>
+  </si>
+  <si>
+    <t>CapitalOne (California)</t>
+  </si>
+  <si>
+    <t>CapitalOne (Non-California States)</t>
+  </si>
+  <si>
+    <t>ChannelAdvisor</t>
+  </si>
+  <si>
+    <t>https://www.channeladvisor.com/privacy-policy/ccpa-reporting/</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>https://www.cisco.com/c/en/us/about/legal/2020-ccpa-metrics-report.html</t>
+  </si>
+  <si>
+    <t>Comcast</t>
+  </si>
+  <si>
+    <t>https://cdn.comcast.com/-/media/Images/cpp-privacy-portal/transparency-reports/Comcast%202020%20IRR%20Transparency%20Report.pdf?rev=9d58a613-eadb-43ce-ad96-c6844648263e&amp;la=en</t>
+  </si>
+  <si>
+    <t>CondéNast</t>
+  </si>
+  <si>
+    <t>https://www.condenast.com/ccpa-metrics</t>
+  </si>
+  <si>
+    <t>CoStar</t>
+  </si>
+  <si>
+    <t>https://www.costar.com/docs/default-source/terms-and-conditions/2020-ccpa-consumer-request-metrics-reporting.pdf</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>https://www.costco.com/privacy-policy.html#cppa</t>
+  </si>
+  <si>
+    <t>Reason For Denying Request: Duplicate, Cancelation, Non-Matching, Or Erroneus Requests</t>
+  </si>
+  <si>
+    <t>"[11] Delete requests converted to opt out: We process denied delete requests as opt-out requests, if possible."</t>
+  </si>
+  <si>
+    <t>CPO</t>
+  </si>
+  <si>
+    <t>https://www.cpooutlets.com/outlets-privacy-policy.html</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>https://www.cricketwireless.com/legal-info/ccpa-metrics</t>
+  </si>
+  <si>
+    <t>CrowdStrike</t>
+  </si>
+  <si>
+    <t>https://www.crowdstrike.com/privacy-notice/</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>https://www.cvs.com/bizcontent/general/policy/consumer-request-metrics-disclosure.pdf</t>
+  </si>
+  <si>
+    <t>If a site states that the average time a request is complied with is "0", "less than 1 day," or some similar time period, the period is counted as 1 day.</t>
+  </si>
+  <si>
+    <t>All table entries are based on explicit statements on a site; N/A means that a site did not explictly mention the practice in question.</t>
+  </si>
+  <si>
+    <t>Decider</t>
+  </si>
+  <si>
+    <t>https://decider.com/ccpa-request-metrics/</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>The total number of Do Not Sell requests consist of 19 requests received offline and 57353 requests received online.</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>https://privacy.thewaltdisneycompany.com/en/current-privacy-policy/your-california-privacy-rights/</t>
+  </si>
+  <si>
+    <t>For Do Not Sell requests: "For the reporting period, we provided California consumers with information about certain controls and choices they could use to effectuate opt-outs through third-party tools for which we do not maintain metrics."</t>
+  </si>
+  <si>
+    <t>DowJones</t>
+  </si>
+  <si>
+    <t>https://content.dowjones.com/pdfs/CCPA-Required-Disclosures-for-2020.pdf</t>
+  </si>
+  <si>
+    <t>Dun&amp;Bradstreet</t>
+  </si>
+  <si>
+    <t>https://www.dnb.com/utility-pages/privacy-policy.html</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>https://www.ebayinc.com/company/privacy-center/privacy-notice/state-privacy-disclosures/</t>
+  </si>
+  <si>
+    <t>It is not clear whether the response times are medians or means as they are described as "Mean or Median number of days to substantively respond to Optout requests." The numbers are as follows: access requests: 7, deletion requests: 30, Do Not Sell requests: 1</t>
+  </si>
+  <si>
+    <t>Experian</t>
+  </si>
+  <si>
+    <t>https://www.experian.com/privacy/ccpa-privacy-policy</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/legal/policy/ccpa</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Facebook (WhatsApp)</t>
+  </si>
+  <si>
+    <t>Fandango</t>
+  </si>
+  <si>
+    <t>https://www.fandango.com/policies/ccpa-metric</t>
+  </si>
+  <si>
+    <t>FannieMae</t>
+  </si>
+  <si>
+    <t>https://www.fanniemae.com/media/40331/display</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>https://www.ford.com/help/privacy/</t>
+  </si>
+  <si>
+    <t>FoxNews</t>
+  </si>
+  <si>
+    <t>https://www.foxnews.com/recordkeeping</t>
+  </si>
+  <si>
+    <t>Requests by Non-California Residents (Partly) Included</t>
+  </si>
+  <si>
+    <t>FreddieMac</t>
+  </si>
+  <si>
+    <t>Requests by Non-California Residents (Partly) Included means that at least part of the requests, e.g., Do Not Sell requests, were provide for non-California users as well.</t>
+  </si>
+  <si>
+    <t>http://www.freddiemac.com/terms/docs/Freddie_Mac_2020_CCPA_Request_Metrics_20210909.pdf</t>
+  </si>
+  <si>
+    <t>2 requests were separately broken down to "Request to Know and Delete." Thus, 2 requests were added to each requests to know and requests to delete.</t>
+  </si>
+  <si>
+    <t>GameStop</t>
+  </si>
+  <si>
+    <t>https://www.gameinformer.com/privacy</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>https://policies.google.com/privacy/ccpa-report?hl=en</t>
+  </si>
+  <si>
+    <t>HomeDepot</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/privacy/California-Privacy-Rights-and-Report</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>https://www.honda.com/privacy/ccpa-metrics.pdf</t>
+  </si>
+  <si>
+    <t>HorizonMedia</t>
+  </si>
+  <si>
+    <t>https://horizoncatalyst.com/privacy-policy-2</t>
+  </si>
+  <si>
+    <t>Hulu</t>
+  </si>
+  <si>
+    <t>https://www.hulu.com/ca-privacy-rights</t>
+  </si>
+  <si>
+    <t>HybridTheory</t>
+  </si>
+  <si>
+    <t>https://hybridtheory.com/privacy-notice/</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/privacy/ccpa</t>
+  </si>
+  <si>
+    <t>IHSMarkit</t>
+  </si>
+  <si>
+    <t>https://ihsmarkit.com/Legal/CCPA-Privacy-Request-Metrics.html</t>
+  </si>
+  <si>
+    <t>It is not clear how requests were processed that were neither complied with nor denied.</t>
+  </si>
+  <si>
+    <t>Imgur</t>
+  </si>
+  <si>
+    <t>https://imgur.com/ccpa</t>
+  </si>
+  <si>
+    <t>InteractiveData</t>
+  </si>
+  <si>
+    <t>https://www.ididata.com/wp-content/uploads/2021/07/California-Consumer-Privacy-Act-Metrics.pdf</t>
+  </si>
+  <si>
+    <t>Intuit</t>
+  </si>
+  <si>
+    <t>https://quickbooks.intuit.com/cas/dam/content/dam/intuit/ic/en_us/content/privacy-ccpa-transparency-report-enus-desktop-june-2021.pdf</t>
+  </si>
+  <si>
+    <t>JPMorganChase</t>
+  </si>
+  <si>
+    <t>https://www.chase.com/content/dam/chase-ux/documents/digital/resources/ccpa-annual-report.pdf</t>
+  </si>
+  <si>
+    <t>Finance And Insurance</t>
+  </si>
+  <si>
+    <t>Reason For Denying Request: Non-California Resident Or Legal Exceptions</t>
+  </si>
+  <si>
+    <t>Kimberly-Clark</t>
+  </si>
+  <si>
+    <t>https://www.kimberly-clark.com/en-us/privacypolicy</t>
+  </si>
+  <si>
+    <t>Do Not Sell requests were answered within a mean of 10 business days, which is converted to 14 days.</t>
+  </si>
+  <si>
+    <t>https://www.vitacost.com/documents/Kroger%20CCPA%20Metrics%20Report%20for%202020%20vF%206_11_21.pdf</t>
+  </si>
+  <si>
+    <t>Kroger (includes requests for Ralphs, Food4Less, Foods Co., Fred Meyer Jewelers, and Vitacost)</t>
+  </si>
+  <si>
+    <t>Kroger (Home Chef)</t>
+  </si>
+  <si>
+    <t>Kroger (Murray's Cheese)</t>
+  </si>
+  <si>
+    <t>Facebook (includes Facebook, Instagram, and other Facebook products except WhatsApp)</t>
+  </si>
+  <si>
+    <t>Beyondblueholdings (includes Emerios)</t>
+  </si>
+  <si>
+    <t>LATimes</t>
+  </si>
+  <si>
+    <t>https://www.latimes.com/privacy-policy</t>
+  </si>
+  <si>
+    <t>LexisNexis</t>
+  </si>
+  <si>
+    <t>https://risk.lexisnexis.com/-/media/files/corporate/lnrs%20ccpa%20metrics%202020%20pdf.pdf</t>
+  </si>
+  <si>
+    <t>LibertyMutual</t>
+  </si>
+  <si>
+    <t>https://www.libertymutualgroup.com/documents/individual-requests-access-and-deletion.pdf</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/legal/l/california-privacy-disclosure-annual-metrics</t>
+  </si>
+  <si>
+    <t>"Because LinkedIn offers all its members the abilityto exercise their rights to access and delete their data without the need to identify the law thatauthorizes their request, these metrics exclude data regarding the majority of successfullycompleted access requests, such as those achieved using LinkedIn’s automated datadownload feature."</t>
+  </si>
+  <si>
+    <t>LiveNation</t>
+  </si>
+  <si>
+    <t>https://help.livenation.com/s/article/CCPA-Statistics?language=en_US</t>
+  </si>
+  <si>
+    <t>Media and Entertainment</t>
+  </si>
+  <si>
+    <t>"CCPA requests" vs "requests by Californians"</t>
+  </si>
+  <si>
+    <t>LiveRamp</t>
+  </si>
+  <si>
+    <t>https://liveramp.com/privacy/california-privacy-notice/</t>
+  </si>
+  <si>
+    <t>LivingSpaces</t>
+  </si>
+  <si>
+    <t>https://www.livingspaces.com/company/privacy-policy/ccpa-metrics</t>
+  </si>
+  <si>
+    <t>Lyft</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qGf0oGi7gz4ysFQ1HFB4GSUrfbVLqqmM/view</t>
+  </si>
+  <si>
+    <t>https://www3.mtb.com/help-center/california-consumer-protection-act-ccpa</t>
+  </si>
+  <si>
+    <t>M&amp;TBank</t>
+  </si>
+  <si>
+    <t>Macy's</t>
+  </si>
+  <si>
+    <t>https://customerservice-macys.com/articles/macys-and-macyscom-notice-of-privacy-practices</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>https://www.mars.com/about/policies-and-practices/ccpa-rights-metrics</t>
+  </si>
+  <si>
+    <t>MassMutual</t>
+  </si>
+  <si>
+    <t>https://www.massmutual.com/protecting-your-information/privacy-policy/california-consumer-privacy-act/</t>
+  </si>
+  <si>
+    <t>McClatchy</t>
+  </si>
+  <si>
+    <t>https://www.mcclatchy.com/ccpa-privacy-policy</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>https://privacy.microsoft.com/en-us/ccpa</t>
+  </si>
+  <si>
+    <t>Google's numbers do not include request tools: "As described in Google’s Privacy Policy and Privacy Help Center, we maintain a variety of tools for users toupdate, manage, access, export, and delete their information, and to control their privacy across Google’sservices. These tools are the primary means by which our users exercise their rights under applicable privacylaws, including the CCPA. In 2020, over 3 million users in the U.S. used Google’s Download your data feature,and over 15 million users in the U.S. deleted some of their data using Google’s My Activity feature. These toolsenable users to choose the specifi c types of data across Google’s services that they want to review, download,or delete. Requests are generally processed within a few days, and oftentimes within hours of being submitted."</t>
+  </si>
+  <si>
+    <t>NationalGeneral</t>
+  </si>
+  <si>
+    <t>https://nghcprivacy.com/ca-ag-metrics</t>
+  </si>
+  <si>
+    <t>Microsoft's numbers include various request tools: "Requests to view and delete personal data on the Privacy dashboard are fulfilled immediately. Requests toaccess and delete personal data are fulfilled through the various tools Microsoft provides within 30 days."; From the previous it is not clear what the mean or average response times are and, thus, they are not included in this table</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/dsar-reporting</t>
+  </si>
+  <si>
+    <t>NBCUniversal</t>
+  </si>
+  <si>
+    <t>https://www.nbcuniversal.com/privacy/ccpa-metric</t>
+  </si>
+  <si>
+    <t>NBCUniversal does sell consumer information but does not provide metrics: "Requests to Opt Out: NBCU encourages individuals who wish to opt out of sharing their information with third parties for interest-based advertising to enable applicable advertising opt-out tools. Requests made through such tools go to third parties rather than to NBCU and therefore NBCU cannot track them for purposes of CCPA metrics reporting."</t>
+  </si>
+  <si>
+    <t>NCAudienceExchange</t>
+  </si>
+  <si>
+    <t>https://ncaudienceexchange.com/doc/News_IQ_CCPA_Request_Metrics2020.pdf</t>
+  </si>
+  <si>
+    <t>NextRoll</t>
+  </si>
+  <si>
+    <t>https://www.nextroll.com/privacy/ccpa-metrics</t>
+  </si>
+  <si>
+    <t>NextRoll is also providing the "Mean Number of Days to Respond to Requests to Know and Delete 36.08." It is not considered here.</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>https://www.nfl .com/legal/privacy</t>
+  </si>
+  <si>
+    <t>In addition to access requests, NFL separately breaks out right to know requests ("Requests to Know: 29 total requests were received, and all were complied with in whole or inpart with an average completion time of 11 days."). As it is unclear what distinguishes those from access requests, they are not considered here.</t>
+  </si>
+  <si>
+    <t>NYTimes</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/privacy/privacy-policy#what-are-your-rights</t>
+  </si>
+  <si>
+    <t>Manufacturing And Consumer Staples</t>
+  </si>
+  <si>
+    <t>As to the 196 days median processing time for access requests, NYTimes explains: "Due to difficulties in integrating a number of legacy data systems into the system that processesthese requests, we have regularly been noticing unacceptable delays in processing time. We are working to address these issues with a view to resolving them as soon as possible."; it is not clear whether all opt out requests were complied with or whether some were denied</t>
   </si>
 </sst>
 </file>
@@ -667,14 +1144,15 @@
   <dimension ref="A1:AL126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
+      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.1640625" bestFit="1" customWidth="1"/>
@@ -703,11 +1181,12 @@
     <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="27.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="40" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="54.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="64.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="52.6640625" customWidth="1"/>
+    <col min="34" max="34" width="77" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="52.6640625" customWidth="1"/>
     <col min="36" max="36" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="22.5" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
@@ -724,61 +1203,61 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -790,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>7</v>
@@ -802,28 +1281,28 @@
         <v>9</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>13</v>
@@ -831,19 +1310,19 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
@@ -894,13 +1373,13 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
@@ -912,18 +1391,18 @@
         <v>44196</v>
       </c>
       <c r="AL2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -960,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -978,10 +1457,10 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -994,18 +1473,18 @@
         <v>44196</v>
       </c>
       <c r="AL3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1058,10 +1537,10 @@
         <v>14</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -1074,18 +1553,18 @@
         <v>44377</v>
       </c>
       <c r="AL4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1134,7 +1613,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
@@ -1148,18 +1627,18 @@
         <v>44196</v>
       </c>
       <c r="AL5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1194,17 +1673,17 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="4">
@@ -1214,18 +1693,18 @@
         <v>44196</v>
       </c>
       <c r="AL6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1278,13 +1757,13 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -1296,18 +1775,18 @@
         <v>44196</v>
       </c>
       <c r="AL7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1352,7 +1831,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
@@ -1366,18 +1845,18 @@
         <v>44196</v>
       </c>
       <c r="AL8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1422,15 +1901,15 @@
       </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="4">
@@ -1440,18 +1919,18 @@
         <v>44196</v>
       </c>
       <c r="AL9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1488,7 +1967,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
@@ -1502,18 +1981,18 @@
         <v>44196</v>
       </c>
       <c r="AL10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1558,10 +2037,10 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
@@ -1574,18 +2053,18 @@
         <v>44196</v>
       </c>
       <c r="AL11" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1630,7 +2109,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
@@ -1644,38 +2123,71 @@
         <v>44196</v>
       </c>
       <c r="AL12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="3">
+        <v>4922</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I13" s="3">
+        <v>422</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="L13" s="3">
+        <v>5235</v>
+      </c>
+      <c r="M13" s="3">
+        <v>5188</v>
+      </c>
+      <c r="N13" s="3">
+        <v>47</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="Q13" s="3">
+        <v>34538</v>
+      </c>
+      <c r="R13" s="3">
+        <v>34538</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="W13" s="3">
+        <v>34</v>
+      </c>
+      <c r="X13" s="3">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>3</v>
+      </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
@@ -1689,29 +2201,54 @@
         <v>44196</v>
       </c>
       <c r="AL13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="3">
+        <v>686</v>
+      </c>
+      <c r="H14" s="3">
+        <v>197</v>
+      </c>
+      <c r="I14" s="3">
+        <v>489</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="L14" s="3">
+        <v>287</v>
+      </c>
+      <c r="M14" s="3">
+        <v>63</v>
+      </c>
+      <c r="N14" s="3">
+        <v>224</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" s="3">
+        <v>26</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -1720,10 +2257,14 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
@@ -1734,41 +2275,72 @@
         <v>44196</v>
       </c>
       <c r="AL14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="G15" s="3">
+        <v>25</v>
+      </c>
+      <c r="H15" s="3">
+        <v>25</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="L15" s="3">
+        <v>48</v>
+      </c>
+      <c r="M15" s="3">
+        <v>48</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="U15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="W15" s="3">
+        <v>47</v>
+      </c>
+      <c r="X15" s="3">
+        <v>37</v>
+      </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
@@ -1779,26 +2351,53 @@
         <v>44196</v>
       </c>
       <c r="AL15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="G16" s="3">
+        <v>216</v>
+      </c>
+      <c r="H16" s="3">
+        <v>127</v>
+      </c>
+      <c r="I16" s="3">
+        <v>89</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="L16" s="3">
+        <v>904</v>
+      </c>
+      <c r="M16" s="3">
+        <v>537</v>
+      </c>
+      <c r="N16" s="3">
+        <v>377</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="Q16" s="3">
+        <v>2495</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1645</v>
+      </c>
+      <c r="S16" s="3">
+        <v>850</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -1806,14 +2405,24 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
+      <c r="AA16" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>25</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>7</v>
+      </c>
       <c r="AD16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
@@ -1824,26 +2433,53 @@
         <v>44196</v>
       </c>
       <c r="AL16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="G17" s="3">
+        <v>399</v>
+      </c>
+      <c r="H17" s="3">
+        <v>153</v>
+      </c>
+      <c r="I17" s="3">
+        <v>226</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="L17" s="3">
+        <v>930</v>
+      </c>
+      <c r="M17" s="3">
+        <v>426</v>
+      </c>
+      <c r="N17" s="3">
+        <v>450</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="Q17" s="3">
+        <v>118063</v>
+      </c>
+      <c r="R17" s="3">
+        <v>118063</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -1851,16 +2487,26 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
+      <c r="AA17" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1</v>
+      </c>
       <c r="AD17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE17" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
+      <c r="AH17" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="4">
         <v>43831</v>
@@ -1869,26 +2515,53 @@
         <v>44196</v>
       </c>
       <c r="AL17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -1900,7 +2573,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
@@ -1914,40 +2587,61 @@
         <v>44196</v>
       </c>
       <c r="AL18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <v>36</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>34</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="P19" s="3">
+        <v>60</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="V19" s="3">
+        <v>28.39</v>
+      </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
+      <c r="Z19" s="3">
+        <v>27.96</v>
+      </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE19" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
@@ -1959,29 +2653,46 @@
         <v>44196</v>
       </c>
       <c r="AL19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <v>27</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>136</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="P20" s="3">
+        <v>13866</v>
+      </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
+      <c r="V20" s="3">
+        <v>8.5139999999999993</v>
+      </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -1990,7 +2701,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
@@ -2004,21 +2715,42 @@
         <v>44196</v>
       </c>
       <c r="AL20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="G21" s="3">
+        <v>625</v>
+      </c>
+      <c r="H21" s="3">
+        <v>543</v>
+      </c>
+      <c r="I21" s="3">
+        <v>82</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="L21" s="3">
+        <v>335</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2</v>
+      </c>
+      <c r="N21" s="3">
+        <v>333</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -2031,17 +2763,29 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
+      <c r="AA21" s="3">
+        <v>19</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>8</v>
+      </c>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
+      <c r="AI21" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ21" s="4">
         <v>43831</v>
       </c>
@@ -2049,21 +2793,42 @@
         <v>44196</v>
       </c>
       <c r="AL21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="G22" s="3">
+        <v>3032</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2318</v>
+      </c>
+      <c r="I22" s="3">
+        <v>714</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="L22" s="3">
+        <v>832</v>
+      </c>
+      <c r="M22" s="3">
+        <v>12</v>
+      </c>
+      <c r="N22" s="3">
+        <v>820</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2076,17 +2841,29 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
+      <c r="AA22" s="3">
+        <v>18</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>7</v>
+      </c>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
+      <c r="AI22" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ22" s="4">
         <v>43831</v>
       </c>
@@ -2094,29 +2871,58 @@
         <v>44196</v>
       </c>
       <c r="AL22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="L23" s="3">
+        <v>179</v>
+      </c>
+      <c r="M23" s="3">
+        <v>179</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="Q23" s="3">
+        <v>2324</v>
+      </c>
+      <c r="R23" s="3">
+        <v>2324</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
+      <c r="V23" s="3">
+        <v>10</v>
+      </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -2125,7 +2931,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
@@ -2139,38 +2945,71 @@
         <v>44196</v>
       </c>
       <c r="AL23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="G24" s="3">
+        <v>169</v>
+      </c>
+      <c r="H24" s="3">
+        <v>169</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="L24" s="3">
+        <v>3947</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3947</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="Q24" s="3">
+        <v>361</v>
+      </c>
+      <c r="R24" s="3">
+        <v>361</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
+      <c r="W24" s="3">
+        <v>26.7</v>
+      </c>
+      <c r="X24" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>15.8</v>
+      </c>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
@@ -2184,38 +3023,71 @@
         <v>44196</v>
       </c>
       <c r="AL24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="G25" s="3">
+        <v>1001</v>
+      </c>
+      <c r="H25" s="3">
+        <v>770</v>
+      </c>
+      <c r="I25" s="3">
+        <v>231</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="L25" s="3">
+        <v>807</v>
+      </c>
+      <c r="M25" s="3">
+        <v>489</v>
+      </c>
+      <c r="N25" s="3">
+        <v>318</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="Q25" s="3">
+        <v>155481</v>
+      </c>
+      <c r="R25" s="3">
+        <v>155481</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
+      <c r="W25" s="3">
+        <v>11</v>
+      </c>
+      <c r="X25" s="3">
+        <v>32</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>1</v>
+      </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
@@ -2229,38 +3101,71 @@
         <v>44196</v>
       </c>
       <c r="AL25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>196</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="G26" s="3">
+        <v>68</v>
+      </c>
+      <c r="H26" s="3">
+        <v>64</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="L26" s="3">
+        <v>658</v>
+      </c>
+      <c r="M26" s="3">
+        <v>588</v>
+      </c>
+      <c r="N26" s="3">
+        <v>70</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="Q26" s="3">
+        <v>79780</v>
+      </c>
+      <c r="R26" s="3">
+        <v>79553</v>
+      </c>
+      <c r="S26" s="3">
+        <v>227</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
+      <c r="W26" s="3">
+        <v>30</v>
+      </c>
+      <c r="X26" s="3">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>6</v>
+      </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
@@ -2274,41 +3179,78 @@
         <v>44196</v>
       </c>
       <c r="AL26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="G27" s="3">
+        <v>7</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="L27" s="3">
+        <v>9</v>
+      </c>
+      <c r="M27" s="3">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
+        <v>4</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="Q27" s="3">
+        <v>35</v>
+      </c>
+      <c r="R27" s="3">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
+        <v>27</v>
+      </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
+      <c r="W27" s="3">
+        <v>32</v>
+      </c>
+      <c r="X27" s="3">
+        <v>21</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>10</v>
+      </c>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
@@ -2319,43 +3261,82 @@
         <v>44196</v>
       </c>
       <c r="AL27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="G28" s="3">
+        <v>522</v>
+      </c>
+      <c r="H28" s="3">
+        <v>494</v>
+      </c>
+      <c r="I28" s="3">
+        <v>28</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="L28" s="3">
+        <v>117</v>
+      </c>
+      <c r="M28" s="3">
+        <v>94</v>
+      </c>
+      <c r="N28" s="3">
+        <v>23</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="Q28" s="3">
+        <v>85078</v>
+      </c>
+      <c r="R28" s="3">
+        <v>79060</v>
+      </c>
+      <c r="S28" s="3">
+        <v>6018</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
+      <c r="W28" s="3">
+        <v>17</v>
+      </c>
+      <c r="X28" s="3">
+        <v>16</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE28" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
+      <c r="AH28" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="4">
         <v>43831</v>
@@ -2364,26 +3345,53 @@
         <v>44196</v>
       </c>
       <c r="AL28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="4:38" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="L29" s="3">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="Q29" s="3">
+        <v>28</v>
+      </c>
+      <c r="R29" s="3">
+        <v>28</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
@@ -2391,11 +3399,17 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
+      <c r="AA29" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>24</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>60.5</v>
+      </c>
       <c r="AD29" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
@@ -2409,38 +3423,71 @@
         <v>44196</v>
       </c>
       <c r="AL29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="G30" s="3">
+        <v>985</v>
+      </c>
+      <c r="H30" s="3">
+        <v>604</v>
+      </c>
+      <c r="I30" s="3">
+        <v>381</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="L30" s="3">
+        <v>221</v>
+      </c>
+      <c r="M30" s="3">
+        <v>164</v>
+      </c>
+      <c r="N30" s="3">
+        <v>57</v>
+      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="Q30" s="3">
+        <v>467</v>
+      </c>
+      <c r="R30" s="3">
+        <v>467</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
+      <c r="W30" s="3">
+        <v>21</v>
+      </c>
+      <c r="X30" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>3</v>
+      </c>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
@@ -2454,26 +3501,53 @@
         <v>44196</v>
       </c>
       <c r="AL30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
@@ -2485,7 +3559,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
@@ -2499,38 +3573,61 @@
         <v>44196</v>
       </c>
       <c r="AL31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <v>3767</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="K32" s="3">
+        <v>12395</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="P32" s="3">
+        <v>306</v>
+      </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="T32" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
+      <c r="W32" s="3">
+        <v>9</v>
+      </c>
+      <c r="X32" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>1</v>
+      </c>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
@@ -2544,23 +3641,38 @@
         <v>44196</v>
       </c>
       <c r="AL32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>196</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="K33" s="3">
+        <v>31</v>
+      </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="P33" s="3">
+        <v>57372</v>
+      </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -2571,11 +3683,17 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
+      <c r="AA33" s="3">
+        <v>4</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>3</v>
+      </c>
       <c r="AD33" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
@@ -2589,44 +3707,83 @@
         <v>44196</v>
       </c>
       <c r="AL33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>196</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="G34" s="3">
+        <v>5338</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4293</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1045</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="L34" s="3">
+        <v>5173</v>
+      </c>
+      <c r="M34" s="3">
+        <v>4424</v>
+      </c>
+      <c r="N34" s="3">
+        <v>749</v>
+      </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+      <c r="Q34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
+      <c r="W34" s="3">
+        <v>6</v>
+      </c>
+      <c r="X34" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE34" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
+      <c r="AH34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ34" s="4">
         <v>43831</v>
       </c>
@@ -2634,23 +3791,38 @@
         <v>44196</v>
       </c>
       <c r="AL34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3">
+        <v>128</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="K35" s="3">
+        <v>225</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="P35" s="3">
+        <v>1093</v>
+      </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -2661,11 +3833,17 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
+      <c r="AA35" s="3">
+        <v>43</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>27</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>5</v>
+      </c>
       <c r="AD35" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
@@ -2679,38 +3857,77 @@
         <v>44196</v>
       </c>
       <c r="AL35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="G36" s="3">
+        <v>48</v>
+      </c>
+      <c r="H36" s="3">
+        <v>48</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="L36" s="3">
+        <v>90</v>
+      </c>
+      <c r="M36" s="3">
+        <v>90</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
+      <c r="Q36" s="3">
+        <v>122</v>
+      </c>
+      <c r="R36" s="3">
+        <v>122</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
+      <c r="W36" s="3">
+        <v>29</v>
+      </c>
+      <c r="X36" s="3">
+        <v>28</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>28</v>
+      </c>
       <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
+      <c r="AA36" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>28</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>27</v>
+      </c>
       <c r="AD36" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
@@ -2724,26 +3941,53 @@
         <v>44196</v>
       </c>
       <c r="AL36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="G37" s="3">
+        <v>73810</v>
+      </c>
+      <c r="H37" s="3">
+        <v>69049</v>
+      </c>
+      <c r="I37" s="3">
+        <v>4761</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="L37" s="3">
+        <v>69508</v>
+      </c>
+      <c r="M37" s="3">
+        <v>65680</v>
+      </c>
+      <c r="N37" s="3">
+        <v>3828</v>
+      </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
+      <c r="Q37" s="3">
+        <v>668052</v>
+      </c>
+      <c r="R37" s="3">
+        <v>668052</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -2755,12 +3999,14 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
+      <c r="AH37" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="4">
         <v>43831</v>
@@ -2769,38 +4015,71 @@
         <v>44196</v>
       </c>
       <c r="AL37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="G38" s="3">
+        <v>2712</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2712</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="L38" s="3">
+        <v>1143</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1143</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
+      <c r="Q38" s="3">
+        <v>2080</v>
+      </c>
+      <c r="R38" s="3">
+        <v>2080</v>
+      </c>
+      <c r="S38" s="3">
+        <v>0</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
+      <c r="W38" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="X38" s="3">
+        <v>10.32</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>9.99</v>
+      </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
@@ -2814,116 +4093,213 @@
         <v>44196</v>
       </c>
       <c r="AL38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="G39" s="3">
+        <v>43677</v>
+      </c>
+      <c r="H39" s="3">
+        <v>43579</v>
+      </c>
+      <c r="I39" s="3">
+        <v>98</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="L39" s="3">
+        <v>82050</v>
+      </c>
+      <c r="M39" s="3">
+        <v>81948</v>
+      </c>
+      <c r="N39" s="3">
+        <v>102</v>
+      </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
+      <c r="U39" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
+      <c r="AA39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>1</v>
+      </c>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE39" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="AE39" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
+      <c r="AG39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI39" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ39" s="4">
-        <v>43831</v>
+        <v>43826</v>
       </c>
       <c r="AK39" s="4">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="AL39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="G40" s="3">
+        <v>993</v>
+      </c>
+      <c r="H40" s="3">
+        <v>986</v>
+      </c>
+      <c r="I40" s="3">
+        <v>7</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="L40" s="3">
+        <v>666</v>
+      </c>
+      <c r="M40" s="3">
+        <v>647</v>
+      </c>
+      <c r="N40" s="3">
+        <v>19</v>
+      </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
+      <c r="U40" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
+      <c r="AA40" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>25</v>
+      </c>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE40" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
+      <c r="AG40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ40" s="4">
-        <v>43831</v>
+        <v>43826</v>
       </c>
       <c r="AK40" s="4">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="AL40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>196</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="G41" s="3">
+        <v>37</v>
+      </c>
+      <c r="H41" s="3">
+        <v>36</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="L41" s="3">
+        <v>168</v>
+      </c>
+      <c r="M41" s="3">
+        <v>151</v>
+      </c>
+      <c r="N41" s="3">
+        <v>17</v>
+      </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
+      <c r="Q41" s="3">
+        <v>4583</v>
+      </c>
+      <c r="R41" s="3">
+        <v>3077</v>
+      </c>
+      <c r="S41" s="3">
+        <v>1506</v>
+      </c>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
@@ -2931,13 +4307,21 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
+      <c r="AA41" s="3">
+        <v>22</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>64</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>4</v>
+      </c>
       <c r="AD41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE41" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
@@ -2949,44 +4333,77 @@
         <v>44196</v>
       </c>
       <c r="AL41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="G42" s="3">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="L42" s="3">
+        <v>2</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2</v>
+      </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
+      <c r="Q42" s="3">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>5</v>
+      </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
+      <c r="Z42" s="3">
+        <v>13</v>
+      </c>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
+      <c r="AF42" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
+      <c r="AI42" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ42" s="4">
         <v>43831</v>
       </c>
@@ -2994,26 +4411,52 @@
         <v>44196</v>
       </c>
       <c r="AL42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>235</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="G43" s="3">
+        <v>634</v>
+      </c>
+      <c r="H43" s="3">
+        <v>488</v>
+      </c>
+      <c r="I43" s="3">
+        <v>146</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="L43" s="3">
+        <v>4494</v>
+      </c>
+      <c r="M43" s="3">
+        <v>3270</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1224</v>
+      </c>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
+      <c r="Q43" s="3">
+        <v>31946</v>
+      </c>
+      <c r="R43" s="3">
+        <v>31946</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
@@ -3021,11 +4464,17 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
+      <c r="AA43" s="3">
+        <v>54</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>59</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>1</v>
+      </c>
       <c r="AD43" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
@@ -3039,38 +4488,73 @@
         <v>44196</v>
       </c>
       <c r="AL43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>196</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>42</v>
+      </c>
+      <c r="I44" s="3">
+        <v>58</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
+      <c r="L44" s="3">
+        <v>314</v>
+      </c>
+      <c r="M44" s="3">
+        <v>19</v>
+      </c>
+      <c r="N44" s="3">
+        <v>295</v>
+      </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="Q44" s="3">
+        <v>106663</v>
+      </c>
+      <c r="R44" s="3">
+        <v>106663</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
+      <c r="AA44" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>12</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>1</v>
+      </c>
       <c r="AD44" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
@@ -3084,44 +4568,71 @@
         <v>44196</v>
       </c>
       <c r="AL44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>174</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="G45" s="3">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+      <c r="L45" s="3">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>3</v>
+      </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
+      <c r="U45" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
+      <c r="Z45" s="3">
+        <v>35</v>
+      </c>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
-      <c r="AI45" s="3"/>
+      <c r="AI45" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ45" s="4">
         <v>43831</v>
       </c>
@@ -3129,38 +4640,71 @@
         <v>44196</v>
       </c>
       <c r="AL45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="G46" s="3">
+        <v>12</v>
+      </c>
+      <c r="H46" s="3">
+        <v>6</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
+      <c r="L46" s="3">
+        <v>106</v>
+      </c>
+      <c r="M46" s="3">
+        <v>84</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
+      <c r="Q46" s="3">
+        <v>1576</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1304</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
+      <c r="W46" s="3">
+        <v>43</v>
+      </c>
+      <c r="X46" s="3">
+        <v>26</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>6</v>
+      </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
@@ -3174,40 +4718,69 @@
         <v>44196</v>
       </c>
       <c r="AL46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="G47" s="3">
+        <v>516</v>
+      </c>
+      <c r="H47" s="3">
+        <v>511</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
+      <c r="L47" s="3">
+        <v>276</v>
+      </c>
+      <c r="M47" s="3">
+        <v>273</v>
+      </c>
+      <c r="N47" s="3">
+        <v>3</v>
+      </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
+      <c r="U47" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
+      <c r="W47" s="3">
+        <v>21</v>
+      </c>
+      <c r="X47" s="3">
+        <v>17</v>
+      </c>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE47" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
@@ -3219,38 +4792,71 @@
         <v>44196</v>
       </c>
       <c r="AL47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="G48" s="3">
+        <v>659</v>
+      </c>
+      <c r="H48" s="3">
+        <v>283</v>
+      </c>
+      <c r="I48" s="3">
+        <v>376</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
+      <c r="L48" s="3">
+        <v>676</v>
+      </c>
+      <c r="M48" s="3">
+        <v>321</v>
+      </c>
+      <c r="N48" s="3">
+        <v>355</v>
+      </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
+      <c r="Q48" s="3">
+        <v>2899</v>
+      </c>
+      <c r="R48" s="3">
+        <v>2094</v>
+      </c>
+      <c r="S48" s="3">
+        <v>805</v>
+      </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
+      <c r="W48" s="3">
+        <v>50</v>
+      </c>
+      <c r="X48" s="3">
+        <v>43</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>1</v>
+      </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
@@ -3264,38 +4870,68 @@
         <v>44196</v>
       </c>
       <c r="AL48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>235</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="G49" s="3">
+        <v>59</v>
+      </c>
+      <c r="H49" s="3">
+        <v>38</v>
+      </c>
+      <c r="I49" s="3">
+        <v>21</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
+      <c r="L49" s="3">
+        <v>68</v>
+      </c>
+      <c r="M49" s="3">
+        <v>29</v>
+      </c>
+      <c r="N49" s="3">
+        <v>39</v>
+      </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
+      <c r="Q49" s="3">
+        <v>466</v>
+      </c>
+      <c r="R49" s="3">
+        <v>306</v>
+      </c>
+      <c r="S49" s="3">
+        <v>160</v>
+      </c>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
+      <c r="AA49" s="3">
+        <v>36</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>30</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>9</v>
+      </c>
       <c r="AD49" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
@@ -3309,26 +4945,53 @@
         <v>44196</v>
       </c>
       <c r="AL49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -3340,7 +5003,7 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
@@ -3354,44 +5017,83 @@
         <v>44196</v>
       </c>
       <c r="AL50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="G51" s="3">
+        <v>20789</v>
+      </c>
+      <c r="H51" s="3">
+        <v>13133</v>
+      </c>
+      <c r="I51" s="3">
+        <v>7656</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="L51" s="3">
+        <v>85033</v>
+      </c>
+      <c r="M51" s="3">
+        <v>72137</v>
+      </c>
+      <c r="N51" s="3">
+        <v>12896</v>
+      </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
+      <c r="Q51" s="3">
+        <v>58508</v>
+      </c>
+      <c r="R51" s="3">
+        <v>39599</v>
+      </c>
+      <c r="S51" s="3">
+        <v>18909</v>
+      </c>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
+      <c r="W51" s="3">
+        <v>1</v>
+      </c>
+      <c r="X51" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>1</v>
+      </c>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE51" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="AE51" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
-      <c r="AH51" s="3"/>
-      <c r="AI51" s="3"/>
+      <c r="AH51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI51" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ51" s="4">
         <v>43831</v>
       </c>
@@ -3399,41 +5101,78 @@
         <v>44196</v>
       </c>
       <c r="AL51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="G52" s="3">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
+      <c r="L52" s="3">
+        <v>32</v>
+      </c>
+      <c r="M52" s="3">
+        <v>2</v>
+      </c>
+      <c r="N52" s="3">
+        <v>30</v>
+      </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
+      <c r="Q52" s="3">
+        <v>12</v>
+      </c>
+      <c r="R52" s="3">
+        <v>2</v>
+      </c>
+      <c r="S52" s="3">
+        <v>10</v>
+      </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
+      <c r="W52" s="3">
+        <v>9</v>
+      </c>
+      <c r="X52" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>12.7</v>
+      </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF52" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
@@ -3444,41 +5183,78 @@
         <v>44196</v>
       </c>
       <c r="AL52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="G53" s="3">
+        <v>10</v>
+      </c>
+      <c r="H53" s="3">
+        <v>3</v>
+      </c>
+      <c r="I53" s="3">
+        <v>7</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
+      <c r="L53" s="3">
+        <v>108</v>
+      </c>
+      <c r="M53" s="3">
+        <v>28</v>
+      </c>
+      <c r="N53" s="3">
+        <v>80</v>
+      </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
+      <c r="Q53" s="3">
+        <v>19255</v>
+      </c>
+      <c r="R53" s="3">
+        <v>19255</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
+      <c r="W53" s="3">
+        <v>37</v>
+      </c>
+      <c r="X53" s="3">
+        <v>34</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>1</v>
+      </c>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="AE53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF53" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
@@ -3489,40 +5265,75 @@
         <v>44196</v>
       </c>
       <c r="AL53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="G54" s="3">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
+      <c r="L54" s="3">
+        <v>11</v>
+      </c>
+      <c r="M54" s="3">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
+        <v>6</v>
+      </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
+      <c r="Q54" s="3">
+        <v>748326</v>
+      </c>
+      <c r="R54" s="3">
+        <v>748326</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
+      <c r="W54" s="3">
+        <v>29</v>
+      </c>
+      <c r="X54" s="3">
+        <v>18</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>1</v>
+      </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE54" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="AE54" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
       <c r="AH54" s="3"/>
@@ -3534,11 +5345,22 @@
         <v>44196</v>
       </c>
       <c r="AL54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="4:38" x14ac:dyDescent="0.2">
-      <c r="D55" s="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="3">
+        <v>107</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -3560,12 +5382,14 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
+      <c r="Z55" s="3">
+        <v>1</v>
+      </c>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
@@ -3579,26 +5403,53 @@
         <v>44196</v>
       </c>
       <c r="AL55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="G56" s="3">
+        <v>24</v>
+      </c>
+      <c r="H56" s="3">
+        <v>17</v>
+      </c>
+      <c r="I56" s="3">
+        <v>7</v>
+      </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
+      <c r="L56" s="3">
+        <v>49</v>
+      </c>
+      <c r="M56" s="3">
+        <v>29</v>
+      </c>
+      <c r="N56" s="3">
+        <v>20</v>
+      </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
+      <c r="Q56" s="3">
+        <v>50</v>
+      </c>
+      <c r="R56" s="3">
+        <v>33</v>
+      </c>
+      <c r="S56" s="3">
+        <v>17</v>
+      </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -3606,16 +5457,26 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
+      <c r="AA56" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>7</v>
+      </c>
       <c r="AD56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE56" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="AE56" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF56" s="3"/>
       <c r="AG56" s="3"/>
-      <c r="AH56" s="3"/>
+      <c r="AH56" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI56" s="3"/>
       <c r="AJ56" s="4">
         <v>43831</v>
@@ -3624,28 +5485,51 @@
         <v>44196</v>
       </c>
       <c r="AL56" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="G57" s="3">
+        <v>869019</v>
+      </c>
+      <c r="H57" s="3">
+        <v>866507</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2512</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="L57" s="3">
+        <v>344945</v>
+      </c>
+      <c r="M57" s="3">
+        <v>274204</v>
+      </c>
+      <c r="N57" s="3">
+        <v>70741</v>
+      </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
+      <c r="U57" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
@@ -3655,12 +5539,16 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE57" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
-      <c r="AH57" s="3"/>
+      <c r="AH57" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI57" s="3"/>
       <c r="AJ57" s="4">
         <v>43831</v>
@@ -3669,29 +5557,54 @@
         <v>44196</v>
       </c>
       <c r="AL57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="G58" s="3">
+        <v>1027</v>
+      </c>
+      <c r="H58" s="3">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1019</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
+      <c r="L58" s="3">
+        <v>567</v>
+      </c>
+      <c r="M58" s="3">
+        <v>13</v>
+      </c>
+      <c r="N58" s="3">
+        <v>554</v>
+      </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
+      <c r="U58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V58" s="3">
+        <v>6</v>
+      </c>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
@@ -3700,10 +5613,14 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF58" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
@@ -3714,38 +5631,71 @@
         <v>44196</v>
       </c>
       <c r="AL58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" t="s">
+        <v>235</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="G59" s="3">
+        <v>27</v>
+      </c>
+      <c r="H59" s="3">
+        <v>27</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
+      <c r="L59" s="3">
+        <v>42</v>
+      </c>
+      <c r="M59" s="3">
+        <v>40</v>
+      </c>
+      <c r="N59" s="3">
+        <v>2</v>
+      </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
+      <c r="Q59" s="3">
+        <v>3511</v>
+      </c>
+      <c r="R59" s="3">
+        <v>3511</v>
+      </c>
+      <c r="S59" s="3">
+        <v>10</v>
+      </c>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
+      <c r="W59" s="3">
+        <v>42</v>
+      </c>
+      <c r="X59" s="3">
+        <v>21</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>14</v>
+      </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
@@ -3759,43 +5709,80 @@
         <v>44196</v>
       </c>
       <c r="AL59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="4:38" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="G60" s="3">
+        <v>687</v>
+      </c>
+      <c r="H60" s="3">
+        <v>340</v>
+      </c>
+      <c r="I60" s="3">
+        <v>347</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
+      <c r="L60" s="3">
+        <v>880</v>
+      </c>
+      <c r="M60" s="3">
+        <v>96</v>
+      </c>
+      <c r="N60" s="3">
+        <v>784</v>
+      </c>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
+      <c r="Q60" s="3">
+        <v>5093</v>
+      </c>
+      <c r="R60" s="3">
+        <v>3259</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1834</v>
+      </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
+      <c r="W60" s="3">
+        <v>34</v>
+      </c>
+      <c r="X60" s="3">
+        <v>12</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>9</v>
+      </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
       <c r="AD60" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE60" s="3"/>
-      <c r="AF60" s="3"/>
+      <c r="AF60" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG60" s="3"/>
-      <c r="AH60" s="3"/>
+      <c r="AH60" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI60" s="3"/>
       <c r="AJ60" s="4">
         <v>43831</v>
@@ -3804,43 +5791,80 @@
         <v>44196</v>
       </c>
       <c r="AL60" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="G61" s="3">
+        <v>2555</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1345</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1210</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
+      <c r="L61" s="3">
+        <v>3185</v>
+      </c>
+      <c r="M61" s="3">
+        <v>2352</v>
+      </c>
+      <c r="N61" s="3">
+        <v>833</v>
+      </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
+      <c r="Q61" s="3">
+        <v>3267</v>
+      </c>
+      <c r="R61" s="3">
+        <v>2541</v>
+      </c>
+      <c r="S61" s="3">
+        <v>726</v>
+      </c>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
+      <c r="W61" s="3">
+        <v>6</v>
+      </c>
+      <c r="X61" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>7</v>
+      </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE61" s="3"/>
-      <c r="AF61" s="3"/>
+      <c r="AF61" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG61" s="3"/>
-      <c r="AH61" s="3"/>
+      <c r="AH61" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI61" s="3"/>
       <c r="AJ61" s="4">
         <v>43831</v>
@@ -3849,43 +5873,80 @@
         <v>44196</v>
       </c>
       <c r="AL61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
+      <c r="Q62" s="3">
+        <v>2</v>
+      </c>
+      <c r="R62" s="3">
+        <v>2</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
+      <c r="W62" s="3">
+        <v>1</v>
+      </c>
+      <c r="X62" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>3</v>
+      </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE62" s="3"/>
-      <c r="AF62" s="3"/>
+      <c r="AF62" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG62" s="3"/>
-      <c r="AH62" s="3"/>
+      <c r="AH62" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI62" s="3"/>
       <c r="AJ62" s="4">
         <v>43831</v>
@@ -3894,38 +5955,67 @@
         <v>44196</v>
       </c>
       <c r="AL62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="G63" s="3">
+        <v>55</v>
+      </c>
+      <c r="H63" s="3">
+        <v>40</v>
+      </c>
+      <c r="I63" s="3">
+        <v>15</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
+      <c r="L63" s="3">
+        <v>169</v>
+      </c>
+      <c r="M63" s="3">
+        <v>136</v>
+      </c>
+      <c r="N63" s="3">
+        <v>33</v>
+      </c>
       <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
+      <c r="P63" s="3">
+        <v>13201</v>
+      </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
+      <c r="T63" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
+      <c r="W63" s="3">
+        <v>60</v>
+      </c>
+      <c r="X63" s="3">
+        <v>50</v>
+      </c>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
       <c r="AD63" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
@@ -3939,43 +6029,80 @@
         <v>44196</v>
       </c>
       <c r="AL63" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" t="s">
+        <v>117</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="G64" s="3">
+        <v>25128</v>
+      </c>
+      <c r="H64" s="3">
+        <v>19565</v>
+      </c>
+      <c r="I64" s="3">
+        <v>5563</v>
+      </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
+      <c r="L64" s="3">
+        <v>7549</v>
+      </c>
+      <c r="M64" s="3">
+        <v>5024</v>
+      </c>
+      <c r="N64" s="3">
+        <v>2525</v>
+      </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
+      <c r="Q64" s="3">
+        <v>14137</v>
+      </c>
+      <c r="R64" s="3">
+        <v>9408</v>
+      </c>
+      <c r="S64" s="3">
+        <v>4729</v>
+      </c>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
+      <c r="W64" s="3">
+        <v>4</v>
+      </c>
+      <c r="X64" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>9</v>
+      </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
       <c r="AD64" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE64" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="AE64" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
-      <c r="AH64" s="3"/>
+      <c r="AH64" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI64" s="3"/>
       <c r="AJ64" s="4">
         <v>43831</v>
@@ -3984,10 +6111,19 @@
         <v>44196</v>
       </c>
       <c r="AL64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -4015,7 +6151,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
       <c r="AD65" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
@@ -4029,21 +6165,42 @@
         <v>44196</v>
       </c>
       <c r="AL65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="G66" s="3">
+        <v>6</v>
+      </c>
+      <c r="H66" s="3">
+        <v>6</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+      <c r="L66" s="3">
+        <v>2</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
@@ -4052,15 +6209,19 @@
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
+      <c r="W66" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="X66" s="3">
+        <v>26.5</v>
+      </c>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
       <c r="AD66" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
@@ -4074,38 +6235,71 @@
         <v>44196</v>
       </c>
       <c r="AL66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="4:38" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" t="s">
+        <v>196</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="G67" s="3">
+        <v>805</v>
+      </c>
+      <c r="H67" s="3">
+        <v>783</v>
+      </c>
+      <c r="I67" s="3">
+        <v>22</v>
+      </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
+      <c r="L67" s="3">
+        <v>6587</v>
+      </c>
+      <c r="M67" s="3">
+        <v>4692</v>
+      </c>
+      <c r="N67" s="3">
+        <v>1895</v>
+      </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
+      <c r="Q67" s="3">
+        <v>15582</v>
+      </c>
+      <c r="R67" s="3">
+        <v>15470</v>
+      </c>
+      <c r="S67" s="3">
+        <v>112</v>
+      </c>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
+      <c r="W67" s="3">
+        <v>29</v>
+      </c>
+      <c r="X67" s="3">
+        <v>32</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>26</v>
+      </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
@@ -4119,41 +6313,76 @@
         <v>44196</v>
       </c>
       <c r="AL67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="G68" s="3">
+        <v>154</v>
+      </c>
+      <c r="H68" s="3">
+        <v>67</v>
+      </c>
+      <c r="I68" s="3">
+        <v>87</v>
+      </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
+      <c r="L68" s="3">
+        <v>70</v>
+      </c>
+      <c r="M68" s="3">
+        <v>16</v>
+      </c>
+      <c r="N68" s="3">
+        <v>54</v>
+      </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
+      <c r="Q68" s="3">
+        <v>358</v>
+      </c>
+      <c r="R68" s="3">
+        <v>345</v>
+      </c>
+      <c r="S68" s="3">
+        <v>13</v>
+      </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
+      <c r="W68" s="3">
+        <v>36</v>
+      </c>
+      <c r="X68" s="3">
+        <v>43</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>2</v>
+      </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
       <c r="AD68" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
+      <c r="AF68" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
       <c r="AI68" s="3"/>
@@ -4164,21 +6393,42 @@
         <v>44196</v>
       </c>
       <c r="AL68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
+      <c r="G69" s="3">
+        <v>3</v>
+      </c>
+      <c r="H69" s="3">
+        <v>2</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
+      <c r="L69" s="3">
+        <v>23</v>
+      </c>
+      <c r="M69" s="3">
+        <v>16</v>
+      </c>
+      <c r="N69" s="3">
+        <v>7</v>
+      </c>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
@@ -4187,15 +6437,19 @@
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
+      <c r="W69" s="3">
+        <v>1</v>
+      </c>
+      <c r="X69" s="3">
+        <v>4</v>
+      </c>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
@@ -4209,38 +6463,65 @@
         <v>44196</v>
       </c>
       <c r="AL69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
+      <c r="G70" s="3">
+        <v>13133</v>
+      </c>
+      <c r="H70" s="3">
+        <v>12831</v>
+      </c>
+      <c r="I70" s="3">
+        <v>302</v>
+      </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
+      <c r="L70" s="3">
+        <v>164682</v>
+      </c>
+      <c r="M70" s="3">
+        <v>95393</v>
+      </c>
+      <c r="N70" s="3">
+        <v>69289</v>
+      </c>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
+      <c r="U70" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
-      <c r="X70" s="3"/>
+      <c r="W70" s="3">
+        <v>1</v>
+      </c>
+      <c r="X70" s="3">
+        <v>8</v>
+      </c>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
       <c r="AD70" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
@@ -4254,26 +6535,53 @@
         <v>44196</v>
       </c>
       <c r="AL70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" t="s">
+        <v>174</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
@@ -4285,7 +6593,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
       <c r="AD71" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
@@ -4299,38 +6607,71 @@
         <v>44196</v>
       </c>
       <c r="AL71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="G72" s="3">
+        <v>116</v>
+      </c>
+      <c r="H72" s="3">
+        <v>72</v>
+      </c>
+      <c r="I72" s="3">
+        <v>44</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+      <c r="L72" s="3">
+        <v>124</v>
+      </c>
+      <c r="M72" s="3">
+        <v>60</v>
+      </c>
+      <c r="N72" s="3">
+        <v>64</v>
+      </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
+      <c r="Q72" s="3">
+        <v>3096</v>
+      </c>
+      <c r="R72" s="3">
+        <v>1068</v>
+      </c>
+      <c r="S72" s="3">
+        <v>2028</v>
+      </c>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
+      <c r="W72" s="3">
+        <v>53.84</v>
+      </c>
+      <c r="X72" s="3">
+        <v>81.53</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>2.85</v>
+      </c>
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
       <c r="AD72" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
@@ -4344,38 +6685,71 @@
         <v>44196</v>
       </c>
       <c r="AL72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" t="s">
+        <v>235</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="G73" s="3">
+        <v>19</v>
+      </c>
+      <c r="H73" s="3">
+        <v>17</v>
+      </c>
+      <c r="I73" s="3">
+        <v>2</v>
+      </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
+      <c r="L73" s="3">
+        <v>62</v>
+      </c>
+      <c r="M73" s="3">
+        <v>57</v>
+      </c>
+      <c r="N73" s="3">
+        <v>5</v>
+      </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
+      <c r="Q73" s="3">
+        <v>46</v>
+      </c>
+      <c r="R73" s="3">
+        <v>46</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
+      <c r="W73" s="3">
+        <v>25</v>
+      </c>
+      <c r="X73" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>25</v>
+      </c>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
       <c r="AD73" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
@@ -4389,38 +6763,65 @@
         <v>44196</v>
       </c>
       <c r="AL73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" t="s">
+        <v>174</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="G74" s="3">
+        <v>30</v>
+      </c>
+      <c r="H74" s="3">
+        <v>30</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
+      <c r="L74" s="3">
+        <v>15</v>
+      </c>
+      <c r="M74" s="3">
+        <v>15</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
+      <c r="U74" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
+      <c r="W74" s="3">
+        <v>41</v>
+      </c>
+      <c r="X74" s="3">
+        <v>29</v>
+      </c>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
       <c r="AD74" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE74" s="3"/>
       <c r="AF74" s="3"/>
@@ -4434,38 +6835,67 @@
         <v>44196</v>
       </c>
       <c r="AL74" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" t="s">
+        <v>196</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="G75" s="3">
+        <v>51</v>
+      </c>
+      <c r="H75" s="3">
+        <v>51</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
+      <c r="L75" s="3">
+        <v>247</v>
+      </c>
+      <c r="M75" s="3">
+        <v>55</v>
+      </c>
+      <c r="N75" s="3">
+        <v>192</v>
+      </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
+      <c r="Q75" s="3">
+        <v>824</v>
+      </c>
+      <c r="R75" s="3">
+        <v>796</v>
+      </c>
+      <c r="S75" s="3">
+        <v>28</v>
+      </c>
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
+      <c r="AA75" s="3">
+        <v>24</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>27</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>5.5</v>
+      </c>
       <c r="AD75" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
@@ -4479,18 +6909,31 @@
         <v>44196</v>
       </c>
       <c r="AL75" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" t="s">
+        <v>42</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="3">
+        <v>2951350</v>
+      </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+      <c r="K76" s="3">
+        <v>2846684</v>
+      </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -4500,7 +6943,9 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
+      <c r="U76" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
@@ -4510,7 +6955,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
       <c r="AD76" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
@@ -4524,21 +6969,42 @@
         <v>44196</v>
       </c>
       <c r="AL76" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="4:38" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="G77" s="3">
+        <v>54</v>
+      </c>
+      <c r="H77" s="3">
+        <v>20</v>
+      </c>
+      <c r="I77" s="3">
+        <v>34</v>
+      </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
+      <c r="L77" s="3">
+        <v>105</v>
+      </c>
+      <c r="M77" s="3">
+        <v>44</v>
+      </c>
+      <c r="N77" s="3">
+        <v>61</v>
+      </c>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
@@ -4547,17 +7013,23 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
+      <c r="W77" s="3">
+        <v>57</v>
+      </c>
+      <c r="X77" s="3">
+        <v>65</v>
+      </c>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
       <c r="AD77" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE77" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="AE77" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
       <c r="AH77" s="3"/>
@@ -4569,38 +7041,71 @@
         <v>44196</v>
       </c>
       <c r="AL77" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" t="s">
+        <v>196</v>
+      </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
+      <c r="G78" s="3">
+        <v>170</v>
+      </c>
+      <c r="H78" s="3">
+        <v>136</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
+      <c r="L78" s="3">
+        <v>1346</v>
+      </c>
+      <c r="M78" s="3">
+        <v>1230</v>
+      </c>
+      <c r="N78" s="3">
+        <v>0</v>
+      </c>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
+      <c r="Q78" s="3">
+        <v>1217</v>
+      </c>
+      <c r="R78" s="3">
+        <v>1070</v>
+      </c>
+      <c r="S78" s="3">
+        <v>0</v>
+      </c>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
+      <c r="W78" s="3">
+        <v>19</v>
+      </c>
+      <c r="X78" s="3">
+        <v>19</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>19</v>
+      </c>
       <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
       <c r="AD78" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE78" s="3"/>
       <c r="AF78" s="3"/>
@@ -4614,21 +7119,42 @@
         <v>44196</v>
       </c>
       <c r="AL78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="4:38" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" t="s">
+        <v>196</v>
+      </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="G79" s="3">
+        <v>1394</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1097</v>
+      </c>
+      <c r="I79" s="3">
+        <v>297</v>
+      </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
+      <c r="L79" s="3">
+        <v>8172</v>
+      </c>
+      <c r="M79" s="3">
+        <v>7371</v>
+      </c>
+      <c r="N79" s="3">
+        <v>801</v>
+      </c>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
@@ -4641,13 +7167,19 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
+      <c r="AA79" s="3">
+        <v>37.96</v>
+      </c>
+      <c r="AB79" s="3">
+        <v>31.19</v>
+      </c>
       <c r="AC79" s="3"/>
       <c r="AD79" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE79" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="AE79" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
       <c r="AH79" s="3"/>
@@ -4659,23 +7191,38 @@
         <v>44196</v>
       </c>
       <c r="AL79" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="4:38" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
+      <c r="K80" s="3">
+        <v>9</v>
+      </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
+      <c r="P80" s="3">
+        <v>13</v>
+      </c>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
@@ -4683,14 +7230,18 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
+      <c r="X80" s="3">
+        <v>34</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>1</v>
+      </c>
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
       <c r="AD80" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
@@ -4704,38 +7255,71 @@
         <v>44196</v>
       </c>
       <c r="AL80" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" t="s">
+        <v>55</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
+      <c r="G81" s="3">
+        <v>16</v>
+      </c>
+      <c r="H81" s="3">
+        <v>16</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
+      <c r="L81" s="3">
+        <v>19</v>
+      </c>
+      <c r="M81" s="3">
+        <v>19</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
+      <c r="Q81" s="3">
+        <v>718</v>
+      </c>
+      <c r="R81" s="3">
+        <v>718</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
+      <c r="W81" s="3">
+        <v>35.25</v>
+      </c>
+      <c r="X81" s="3">
+        <v>21</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>1</v>
+      </c>
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
       <c r="AD81" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
@@ -4749,21 +7333,42 @@
         <v>44196</v>
       </c>
       <c r="AL81" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="4:38" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" t="s">
+        <v>196</v>
+      </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
+      <c r="G82" s="3">
+        <v>22</v>
+      </c>
+      <c r="H82" s="3">
+        <v>16</v>
+      </c>
+      <c r="I82" s="3">
+        <v>6</v>
+      </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
+      <c r="L82" s="3">
+        <v>49</v>
+      </c>
+      <c r="M82" s="3">
+        <v>42</v>
+      </c>
+      <c r="N82" s="3">
+        <v>7</v>
+      </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
@@ -4772,17 +7377,23 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
+      <c r="W82" s="3">
+        <v>20</v>
+      </c>
+      <c r="X82" s="3">
+        <v>41</v>
+      </c>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE82" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="AE82" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
       <c r="AH82" s="3"/>
@@ -4794,24 +7405,46 @@
         <v>44196</v>
       </c>
       <c r="AL82" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="4:38" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" t="s">
+        <v>196</v>
+      </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
+      <c r="G83" s="3">
+        <v>70</v>
+      </c>
+      <c r="H83" s="3">
+        <v>38</v>
+      </c>
+      <c r="I83" s="3">
+        <v>32</v>
+      </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
+      <c r="L83" s="3">
+        <v>873</v>
+      </c>
+      <c r="M83" s="3">
+        <v>605</v>
+      </c>
+      <c r="N83" s="3">
+        <v>268</v>
+      </c>
       <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
+      <c r="P83" s="3">
+        <v>129456</v>
+      </c>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
@@ -4821,13 +7454,21 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
+      <c r="AA83" s="3">
+        <v>196</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>1</v>
+      </c>
       <c r="AD83" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE83" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
       <c r="AH83" s="3"/>
@@ -4839,10 +7480,10 @@
         <v>44196</v>
       </c>
       <c r="AL83" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="4:38" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -4870,7 +7511,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
       <c r="AD84" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
@@ -4884,10 +7525,10 @@
         <v>44196</v>
       </c>
       <c r="AL84" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -4915,7 +7556,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
       <c r="AD85" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE85" s="3"/>
       <c r="AF85" s="3"/>
@@ -4929,10 +7570,10 @@
         <v>44196</v>
       </c>
       <c r="AL85" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -4960,7 +7601,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
       <c r="AD86" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
@@ -4974,10 +7615,10 @@
         <v>44196</v>
       </c>
       <c r="AL86" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -5005,7 +7646,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
       <c r="AD87" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
@@ -5019,10 +7660,10 @@
         <v>44196</v>
       </c>
       <c r="AL87" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -5050,7 +7691,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
       <c r="AD88" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE88" s="3"/>
       <c r="AF88" s="3"/>
@@ -5064,10 +7705,10 @@
         <v>44196</v>
       </c>
       <c r="AL88" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -5095,7 +7736,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
       <c r="AD89" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE89" s="3"/>
       <c r="AF89" s="3"/>
@@ -5109,10 +7750,10 @@
         <v>44196</v>
       </c>
       <c r="AL89" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -5140,7 +7781,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
@@ -5154,10 +7795,10 @@
         <v>44196</v>
       </c>
       <c r="AL90" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -5185,7 +7826,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
       <c r="AD91" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE91" s="3"/>
       <c r="AF91" s="3"/>
@@ -5199,10 +7840,10 @@
         <v>44196</v>
       </c>
       <c r="AL91" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -5230,7 +7871,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
       <c r="AD92" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE92" s="3"/>
       <c r="AF92" s="3"/>
@@ -5244,10 +7885,10 @@
         <v>44196</v>
       </c>
       <c r="AL92" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -5275,7 +7916,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
       <c r="AD93" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE93" s="3"/>
       <c r="AF93" s="3"/>
@@ -5289,10 +7930,10 @@
         <v>44196</v>
       </c>
       <c r="AL93" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -5320,7 +7961,7 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
       <c r="AD94" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE94" s="3"/>
       <c r="AF94" s="3"/>
@@ -5334,10 +7975,10 @@
         <v>44196</v>
       </c>
       <c r="AL94" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -5365,7 +8006,7 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
@@ -5379,10 +8020,10 @@
         <v>44196</v>
       </c>
       <c r="AL95" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="4:38" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -5410,7 +8051,7 @@
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
       <c r="AD96" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE96" s="3"/>
       <c r="AF96" s="3"/>
@@ -5424,7 +8065,7 @@
         <v>44196</v>
       </c>
       <c r="AL96" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="4:38" x14ac:dyDescent="0.2">
@@ -5455,7 +8096,7 @@
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
       <c r="AD97" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE97" s="3"/>
       <c r="AF97" s="3"/>
@@ -5469,7 +8110,7 @@
         <v>44196</v>
       </c>
       <c r="AL97" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="4:38" x14ac:dyDescent="0.2">
@@ -5500,7 +8141,7 @@
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
       <c r="AD98" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE98" s="3"/>
       <c r="AF98" s="3"/>
@@ -5514,7 +8155,7 @@
         <v>44196</v>
       </c>
       <c r="AL98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="4:38" x14ac:dyDescent="0.2">
@@ -5545,7 +8186,7 @@
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
       <c r="AD99" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE99" s="3"/>
       <c r="AF99" s="3"/>
@@ -5559,7 +8200,7 @@
         <v>44196</v>
       </c>
       <c r="AL99" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="4:38" x14ac:dyDescent="0.2">
@@ -5590,7 +8231,7 @@
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
       <c r="AD100" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE100" s="3"/>
       <c r="AF100" s="3"/>
@@ -5604,7 +8245,7 @@
         <v>44196</v>
       </c>
       <c r="AL100" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="4:38" x14ac:dyDescent="0.2">
@@ -5635,7 +8276,7 @@
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
       <c r="AD101" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE101" s="3"/>
       <c r="AF101" s="3"/>
@@ -5649,7 +8290,7 @@
         <v>44196</v>
       </c>
       <c r="AL101" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="4:38" x14ac:dyDescent="0.2">
@@ -5680,7 +8321,7 @@
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
       <c r="AD102" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE102" s="3"/>
       <c r="AF102" s="3"/>
@@ -5694,7 +8335,7 @@
         <v>44196</v>
       </c>
       <c r="AL102" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="4:38" x14ac:dyDescent="0.2">
@@ -5725,7 +8366,7 @@
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
       <c r="AD103" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE103" s="3"/>
       <c r="AF103" s="3"/>
@@ -5739,7 +8380,7 @@
         <v>44196</v>
       </c>
       <c r="AL103" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="4:38" x14ac:dyDescent="0.2">
@@ -5770,7 +8411,7 @@
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
       <c r="AD104" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE104" s="3"/>
       <c r="AF104" s="3"/>
@@ -5784,7 +8425,7 @@
         <v>44196</v>
       </c>
       <c r="AL104" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="4:38" x14ac:dyDescent="0.2">
@@ -5815,7 +8456,7 @@
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
       <c r="AD105" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE105" s="3"/>
       <c r="AF105" s="3"/>
@@ -5829,7 +8470,7 @@
         <v>44196</v>
       </c>
       <c r="AL105" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="4:38" x14ac:dyDescent="0.2">
@@ -5860,7 +8501,7 @@
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
       <c r="AD106" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE106" s="3"/>
       <c r="AF106" s="3"/>
@@ -5874,7 +8515,7 @@
         <v>44196</v>
       </c>
       <c r="AL106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="4:38" x14ac:dyDescent="0.2">
@@ -5905,7 +8546,7 @@
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
       <c r="AD107" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE107" s="3"/>
       <c r="AF107" s="3"/>
@@ -5919,7 +8560,7 @@
         <v>44196</v>
       </c>
       <c r="AL107" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="4:38" x14ac:dyDescent="0.2">
@@ -5950,7 +8591,7 @@
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
       <c r="AD108" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE108" s="3"/>
       <c r="AF108" s="3"/>
@@ -5964,7 +8605,7 @@
         <v>44196</v>
       </c>
       <c r="AL108" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="4:38" x14ac:dyDescent="0.2">
@@ -5995,7 +8636,7 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
       <c r="AD109" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE109" s="3"/>
       <c r="AF109" s="3"/>
@@ -6009,7 +8650,7 @@
         <v>44196</v>
       </c>
       <c r="AL109" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="4:38" x14ac:dyDescent="0.2">
@@ -6040,7 +8681,7 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
       <c r="AD110" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE110" s="3"/>
       <c r="AF110" s="3"/>
@@ -6054,7 +8695,7 @@
         <v>44196</v>
       </c>
       <c r="AL110" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="4:38" x14ac:dyDescent="0.2">
@@ -6085,7 +8726,7 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
       <c r="AD111" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE111" s="3"/>
       <c r="AF111" s="3"/>
@@ -6099,7 +8740,7 @@
         <v>44196</v>
       </c>
       <c r="AL111" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="4:38" x14ac:dyDescent="0.2">
@@ -6130,7 +8771,7 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
       <c r="AD112" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE112" s="3"/>
       <c r="AF112" s="3"/>
@@ -6144,7 +8785,7 @@
         <v>44196</v>
       </c>
       <c r="AL112" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="4:38" x14ac:dyDescent="0.2">
@@ -6175,7 +8816,7 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
       <c r="AD113" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE113" s="3"/>
       <c r="AF113" s="3"/>
@@ -6189,7 +8830,7 @@
         <v>44196</v>
       </c>
       <c r="AL113" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="4:38" x14ac:dyDescent="0.2">
@@ -6220,7 +8861,7 @@
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
       <c r="AD114" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE114" s="3"/>
       <c r="AF114" s="3"/>
@@ -6234,7 +8875,7 @@
         <v>44196</v>
       </c>
       <c r="AL114" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="4:38" x14ac:dyDescent="0.2">
@@ -6265,7 +8906,7 @@
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
       <c r="AD115" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE115" s="3"/>
       <c r="AF115" s="3"/>
@@ -6279,7 +8920,7 @@
         <v>44196</v>
       </c>
       <c r="AL115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="4:38" x14ac:dyDescent="0.2">
@@ -6310,7 +8951,7 @@
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
       <c r="AD116" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE116" s="3"/>
       <c r="AF116" s="3"/>
@@ -6324,7 +8965,7 @@
         <v>44196</v>
       </c>
       <c r="AL116" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="4:38" x14ac:dyDescent="0.2">
@@ -6355,7 +8996,7 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
       <c r="AD117" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE117" s="3"/>
       <c r="AF117" s="3"/>
@@ -6369,7 +9010,7 @@
         <v>44196</v>
       </c>
       <c r="AL117" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="4:38" x14ac:dyDescent="0.2">
@@ -6400,7 +9041,7 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
       <c r="AD118" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE118" s="3"/>
       <c r="AF118" s="3"/>
@@ -6414,7 +9055,7 @@
         <v>44196</v>
       </c>
       <c r="AL118" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="4:38" x14ac:dyDescent="0.2">
@@ -6445,7 +9086,7 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
       <c r="AD119" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE119" s="3"/>
       <c r="AF119" s="3"/>
@@ -6459,7 +9100,7 @@
         <v>44196</v>
       </c>
       <c r="AL119" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="4:38" x14ac:dyDescent="0.2">
@@ -6490,7 +9131,7 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
       <c r="AD120" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE120" s="3"/>
       <c r="AF120" s="3"/>
@@ -6504,7 +9145,7 @@
         <v>44196</v>
       </c>
       <c r="AL120" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="4:38" x14ac:dyDescent="0.2">
@@ -6535,7 +9176,7 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
       <c r="AD121" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE121" s="3"/>
       <c r="AF121" s="3"/>
@@ -6549,7 +9190,7 @@
         <v>44196</v>
       </c>
       <c r="AL121" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="4:38" x14ac:dyDescent="0.2">
@@ -6580,7 +9221,7 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
       <c r="AD122" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE122" s="3"/>
       <c r="AF122" s="3"/>
@@ -6594,7 +9235,7 @@
         <v>44196</v>
       </c>
       <c r="AL122" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="4:38" x14ac:dyDescent="0.2">
@@ -6625,7 +9266,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
       <c r="AD123" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE123" s="3"/>
       <c r="AF123" s="3"/>
@@ -6639,7 +9280,7 @@
         <v>44196</v>
       </c>
       <c r="AL123" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="4:38" x14ac:dyDescent="0.2">
@@ -6670,7 +9311,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
       <c r="AD124" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE124" s="3"/>
       <c r="AF124" s="3"/>
@@ -6684,7 +9325,7 @@
         <v>44196</v>
       </c>
       <c r="AL124" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="4:38" x14ac:dyDescent="0.2">
@@ -6715,7 +9356,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
       <c r="AD125" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE125" s="3"/>
       <c r="AF125" s="3"/>
@@ -6729,7 +9370,7 @@
         <v>44196</v>
       </c>
       <c r="AL125" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="4:38" x14ac:dyDescent="0.2">
@@ -6760,7 +9401,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
       <c r="AD126" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AE126" s="3"/>
       <c r="AF126" s="3"/>
@@ -6774,7 +9415,7 @@
         <v>44196</v>
       </c>
       <c r="AL126" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6791,6 +9432,76 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{A5E272B7-0FD5-6D4B-A65F-DD3173CFA5AF}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{95C5779B-C934-0A42-A56A-0FE64772CDEA}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{769B880C-FD1B-CC40-8AED-AD35CCBC03DF}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{9488A91D-536A-AA4A-ADCE-0A9E9CA2AFB7}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{E86733CA-85A6-5E46-9B90-2D7AB545CC4C}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{AB5CA93F-0DFA-1745-B573-4C51960FDC69}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{0F822BAC-2807-CA40-8A19-162958C00DF4}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{BAA544DE-A476-2B4F-8A57-4CA9D90A8543}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{22355E05-1490-B549-81D8-B78A93ABA025}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{3B127C09-0888-0A4D-8B51-CEFC47FFE7FC}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{08DE7E91-EA17-0D40-8EFE-5D1219E8EFA7}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{5FB8EC1C-AC28-554D-9F4F-0779E5511951}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{87A251A1-6AC7-0C47-A593-0EBD3AC09D7A}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{6DB7E643-45B1-DD4C-8CA4-D33D42A42562}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{73F52942-80EC-CB4E-9769-5335794054DC}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{ABFF0EC1-E07A-9540-9BCF-EAE4FB99D8FC}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{62A1FE52-BAA0-0E43-B1A7-812B1571BCFD}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{6A931E0C-38BC-1B4B-A760-220E5F5BF1ED}"/>
+    <hyperlink ref="B28" r:id="rId27" location="cppa" xr:uid="{C2E5661D-3B7D-4647-BFE2-FA6E09F81EA2}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{3E2AB1E0-CF6F-F049-A968-353864CD2C87}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{A137EAAF-B384-974D-98DC-4826B56DB195}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{68575C6B-E1FF-6E4E-A99D-99D8A3630EB2}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{FE3D23D8-227A-E64F-A921-88E872CEAECC}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{6A0F06AB-73BB-1643-AA9F-F81C5B2C574E}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{F2A650F9-A9C3-7643-B74E-0A61600F3C6A}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{2EB95463-C681-4E4B-BD30-56403FE6B153}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{52AEC33F-4AA7-B941-867B-B468334BA8B9}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{14FF46B3-6454-E246-A0B9-2A2820A80447}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{11358C7B-56C3-094D-A499-5C90E0E7D9D7}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{089DCBE8-C685-0648-B53A-3023E1C89A03}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{7260F4D6-F606-434A-81E8-78F7C5E11287}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{6A6815C1-5F8C-5748-B7CD-95D694D6D9D5}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{017FB8BC-0DC6-844F-B1E3-77A39E5CC1A6}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{6DADBAC3-ECD6-4048-80D2-A22C2DDE760B}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{ED365798-F47C-044D-AB99-954344AC5E1E}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{BCC7B940-2240-2845-ADBC-86EA701BC860}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{77B45C15-64C9-D941-8BB0-174D57EEB3F8}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{946AC204-1A04-6543-804B-E1652724F96C}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{B698FA54-5CD2-674A-A74E-49581F28D2B8}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{3319DB45-0B2E-C247-AAA1-0F4CBF8D3A62}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{81BCD067-713B-8544-8FBB-A86B943CB32A}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{3F39FCC8-E79C-2C41-AA1C-C8B71B7D744B}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{1F66686E-70BB-A945-BE9F-2661760E245E}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{A039A40E-DD73-C54D-9BD7-7B1B07643DA6}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{0779DB82-7D17-FE47-9ACC-39EEAFEE4EE8}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{24DC055F-5483-224E-9A02-47029395DF2C}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{781D3141-1151-7440-AB9A-4D715ED22A70}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{7BA2D72C-4312-9C49-8259-7A90891278E8}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{DBDA0D35-2ED7-7E4D-A4E1-987ACB4A8CCC}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{BC4AD0F0-35D2-AD4C-BA86-177BF9E135C6}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{2C7035EB-ABA3-CD4F-A075-2C8369E834CA}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{C1776E9E-4917-2A45-B701-38FAA51EE0BD}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{1BBBD62E-9AAC-544A-93C1-53BA546F7635}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{3F9A2B23-7101-4C45-BDE8-4FB09235D871}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{D57B8C06-8083-BE43-8783-3202E1850A55}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{58014565-1613-D34F-A3AE-990A0E398BBE}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{7DFE1C73-71BB-4943-95E1-3B1D21934D4F}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{8FB04AF1-D223-0B4B-B20F-2AD1C4494D6F}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{DEA02BDD-CA5F-704C-A3EF-785CC7534381}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00ABD67F-9438-AE41-A44B-8F5A9DD99D73}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{79EF1121-1F66-1A45-8661-89BE267B5556}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{FCA0163A-88EB-4D40-BA38-4E1E2D6BCD99}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{B6AF5159-30E5-8049-9B74-754C2468996B}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{906D8958-8261-C241-B7DC-F33649182A76}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{1BCCDB5F-29B2-1146-B8BE-7E87931A7982}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{1D9676C3-73DD-A049-947C-82ACB77275AF}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{8E315F33-083E-2A4F-9966-187D67FA6308}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{2441AC1B-1AE4-4142-B29A-22103060EF8F}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{D56EA017-71BF-2344-A9A7-FBDD6E6CB926}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{A7D35AB5-6F18-4146-B265-BE39F1DD4A25}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{2450D4EB-CDB3-534F-8713-28C1A2A661A2}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{C89282FF-5D80-0B45-B75D-14BC2E60EA09}"/>
+    <hyperlink ref="B83" r:id="rId81" location="what-are-your-rights" xr:uid="{EFEB40C9-2FE6-E242-9515-1B141794B92B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6798,22 +9509,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EFEE2A-D6C7-5C44-8E8E-B31B0F976A16}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/ccpa-metrics.xlsx
+++ b/ccpa-metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szimmeck/Desktop/Code/ccpa-metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC2C15-2E67-6F42-BAF1-A7631F823F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABAFEF4-BEB1-A144-AF1D-F044EB32A8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{44A17BD5-676E-7148-B323-66434D58158A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="317">
   <si>
     <t>Website</t>
   </si>
@@ -130,9 +130,6 @@
     <t>https://www.activision.com/legal/ccpa-report</t>
   </si>
   <si>
-    <t>Claims To Not Sell</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
     <t>https://www.costco.com/privacy-policy.html#cppa</t>
   </si>
   <si>
-    <t>Reason For Denying Request: Duplicate, Cancelation, Non-Matching, Or Erroneus Requests</t>
-  </si>
-  <si>
     <t>"[11] Delete requests converted to opt out: We process denied delete requests as opt-out requests, if possible."</t>
   </si>
   <si>
@@ -746,6 +740,252 @@
   </si>
   <si>
     <t>As to the 196 days median processing time for access requests, NYTimes explains: "Due to difficulties in integrating a number of legacy data systems into the system that processesthese requests, we have regularly been noticing unacceptable delays in processing time. We are working to address these issues with a view to resolving them as soon as possible."; it is not clear whether all opt out requests were complied with or whether some were denied</t>
+  </si>
+  <si>
+    <t>OneMainFinancial</t>
+  </si>
+  <si>
+    <t>https://www.onemainfinancial.com/legal/ca-privacy</t>
+  </si>
+  <si>
+    <t>Oracle (General Marketing, Sales, and Events)</t>
+  </si>
+  <si>
+    <t>Oracle Data Cloud (Oracle Advertising)</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/legal/privacy/ccpa/</t>
+  </si>
+  <si>
+    <t>PageSix</t>
+  </si>
+  <si>
+    <t>https://pagesix.com/ccpa-request-metrics/</t>
+  </si>
+  <si>
+    <t>Requests to opt out were broken down in 19 (offline) and 57353 (online)</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>https://www.pandora.com/privacy/ccpa</t>
+  </si>
+  <si>
+    <t>PeopleDataLabs</t>
+  </si>
+  <si>
+    <t>https://www.peopledatalabs.com/ccpa-metrics</t>
+  </si>
+  <si>
+    <t>PepsiCo</t>
+  </si>
+  <si>
+    <t>https://policy.pepsico.com/privacystats.htm</t>
+  </si>
+  <si>
+    <t>PepsiCo also provides metrics for "Requests for Categories of Information."</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>https://policy.pinterest.com/en/ccpa-metrics-disclosure</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>https://www.pnc.com/content/dam/pnc-com/pdf/Privacy%20Policy/ccpa_2020_metrics_pnc.pdf</t>
+  </si>
+  <si>
+    <t>Postie</t>
+  </si>
+  <si>
+    <t>https://postie.com/ca_info.html</t>
+  </si>
+  <si>
+    <t>Quotient</t>
+  </si>
+  <si>
+    <t>https://www.quotient.com/ccpa-metric/</t>
+  </si>
+  <si>
+    <t>RevealMobile</t>
+  </si>
+  <si>
+    <t>https://revealmobile.com/privacy/</t>
+  </si>
+  <si>
+    <t>It is not clear whether the response times are medians or means as they are described as "The median or mean number of days within which the business substantively responded to requests to know, requests to delete, and requests to opt-out: 18."</t>
+  </si>
+  <si>
+    <t>https://www.rrd.com/privacy-policy/ccpa-data-requests</t>
+  </si>
+  <si>
+    <t>RRDonnelley</t>
+  </si>
+  <si>
+    <t>Runtastic</t>
+  </si>
+  <si>
+    <t>https://www.runtastic.com/en/CCPA-requestreport</t>
+  </si>
+  <si>
+    <t>Semasio</t>
+  </si>
+  <si>
+    <t>https://documents.semasio.com/ccpa-consumer-requests</t>
+  </si>
+  <si>
+    <t>The reporting period is July-December 2020.</t>
+  </si>
+  <si>
+    <t>The reporting period is August 2021. No number for requests of deletion was given. No number for the mean or median number of days for processing opt out requests was given.</t>
+  </si>
+  <si>
+    <t>ShareThis</t>
+  </si>
+  <si>
+    <t>https://sharethis.com/privacy/#ccpa</t>
+  </si>
+  <si>
+    <t>"The number of opt-out requests we received via the ShareThis opt-out page or industry opt-out pages worldwide in 2020 was 18,887,357 and all resulted in the real-time placement of an opt-out cookie by ShareThis as described in this privacy policy."</t>
+  </si>
+  <si>
+    <t>SignatureAviation</t>
+  </si>
+  <si>
+    <t>https://www.signatureaviation.com/~/media/Files/S/Signature-Aviation/documents/privacy-policy/Notice-for-California-Consumers-July2021.pdf</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>https://slack.com/trust/compliance/ccpa-metric-disclosure</t>
+  </si>
+  <si>
+    <t>Snap</t>
+  </si>
+  <si>
+    <t>https://snap.com/en-US/privacy/california-privacy-notice</t>
+  </si>
+  <si>
+    <t>Claims To Not Sell (On Metrics Page Or Section)</t>
+  </si>
+  <si>
+    <t>"Just so you know, globally, in 2020, over 125,000 users downloaded their data and over 14 million users requested account deletion using our self-serve tools."</t>
+  </si>
+  <si>
+    <t>SoCalGas</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>https://www.socalgas.com/california-consumer-privacy-act-policy</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>https://www.sonypictures.com/corp/ccparightsrequestsreporting</t>
+  </si>
+  <si>
+    <t>Sony also provides metrics for "Requests for Data Portability."</t>
+  </si>
+  <si>
+    <t>Sovrn</t>
+  </si>
+  <si>
+    <t>https://www.sovrn.com/legal/ccpa-metrics/</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>https://www.spotify.com/us/legal/california-privacy-disclosure/</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
+    <t>https://www.staplesadvantage.com/tc/?id=ce05d94e-e9b9-449f-a3a6-de52e08a50b9</t>
+  </si>
+  <si>
+    <t>Staples does not provide the median number of days to resolve requests for the full year but instead for halves of years as follows: requests to know Jan-June: 80, July-December: 40, requests to delete: Jan-June: 188, July-December: 44</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>https://www.starbucks.com/terms/privacy-policy#additional_disclosures_for_california_residents</t>
+  </si>
+  <si>
+    <t>StateFarm</t>
+  </si>
+  <si>
+    <t>https://static1.st8fm.com/en_US/downloads/sf/ccpa-metrics.pdf</t>
+  </si>
+  <si>
+    <t>StateFarm claims to not sell but still provided the following metrics for Do Not Sell requests: received: 3, fulfilled: 0, denied: 3.</t>
+  </si>
+  <si>
+    <t>Synchrony</t>
+  </si>
+  <si>
+    <t>https://www.synchrony.com/ccpametrics2020.pdf</t>
+  </si>
+  <si>
+    <t>T-Mobile</t>
+  </si>
+  <si>
+    <t>https://www.t-mobile.com/privacy-center/our-practices/marketing-solutions-privacy-notice</t>
+  </si>
+  <si>
+    <t>ThomsonReuters</t>
+  </si>
+  <si>
+    <t>https://www.thomsonreuters.com/content/dam/ewp-m/documents/thomsonreuters/en/pdf/other/ccpa-consumer-request-metrics-for-2020.pdf</t>
+  </si>
+  <si>
+    <t>Throtle</t>
+  </si>
+  <si>
+    <t>https://throtle.io/2020-ccpa-statistics/</t>
+  </si>
+  <si>
+    <t>Reason For Denying Request: Duplicate, Cancelation, Incomplete, Non-Matching, Or Erroneus Requests</t>
+  </si>
+  <si>
+    <t>Transunion</t>
+  </si>
+  <si>
+    <t>https://www.transunion.com/CCPA-metrics</t>
+  </si>
+  <si>
+    <t>Trugreen</t>
+  </si>
+  <si>
+    <t>https://tg-cdn.azureedge.net/sites/default/files/2021-06/CCPA%20Metrics%20Chart%202020_final.pdf</t>
+  </si>
+  <si>
+    <t>Truist</t>
+  </si>
+  <si>
+    <t>https://www.suntrust.com/content/dam/truist/us/en/documents/disclosures/ccpa-2020-disclosure.pdf</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>https://privacy.uber.com/privacy/california/</t>
+  </si>
+  <si>
+    <t>Ubimo</t>
+  </si>
+  <si>
+    <t>https://www.ubimo.com/ccpa-metrics/</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1384,10 @@
   <dimension ref="A1:AL126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
+      <selection pane="bottomRight" activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,7 +1412,7 @@
     <col min="18" max="18" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25.83203125" bestFit="1" customWidth="1"/>
@@ -1209,13 +1449,13 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -1224,13 +1464,13 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>4</v>
@@ -1239,13 +1479,13 @@
         <v>17</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -1254,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>21</v>
@@ -1281,22 +1521,22 @@
         <v>9</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="AH1" s="1" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>27</v>
@@ -1316,7 +1556,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>25</v>
@@ -1391,7 +1631,7 @@
         <v>44196</v>
       </c>
       <c r="AL2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
@@ -1402,7 +1642,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1457,7 +1697,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>26</v>
@@ -1473,18 +1713,18 @@
         <v>44196</v>
       </c>
       <c r="AL3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1537,7 +1777,7 @@
         <v>14</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>26</v>
@@ -1553,18 +1793,18 @@
         <v>44377</v>
       </c>
       <c r="AL4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1613,7 +1853,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
@@ -1627,18 +1867,18 @@
         <v>44196</v>
       </c>
       <c r="AL5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1673,7 +1913,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>26</v>
@@ -1693,18 +1933,18 @@
         <v>44196</v>
       </c>
       <c r="AL6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1757,7 +1997,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>26</v>
@@ -1775,18 +2015,18 @@
         <v>44196</v>
       </c>
       <c r="AL7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1831,7 +2071,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
@@ -1845,18 +2085,18 @@
         <v>44196</v>
       </c>
       <c r="AL8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1901,7 +2141,7 @@
       </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>26</v>
@@ -1919,18 +2159,18 @@
         <v>44196</v>
       </c>
       <c r="AL9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1981,18 +2221,18 @@
         <v>44196</v>
       </c>
       <c r="AL10" t="s">
-        <v>36</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2053,18 +2293,18 @@
         <v>44196</v>
       </c>
       <c r="AL11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2109,7 +2349,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
@@ -2123,18 +2363,18 @@
         <v>44196</v>
       </c>
       <c r="AL12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2187,7 +2427,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
@@ -2201,18 +2441,18 @@
         <v>44196</v>
       </c>
       <c r="AL13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2257,7 +2497,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>26</v>
@@ -2275,18 +2515,18 @@
         <v>44196</v>
       </c>
       <c r="AL14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2333,7 +2573,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>26</v>
@@ -2351,18 +2591,18 @@
         <v>44196</v>
       </c>
       <c r="AL15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2415,7 +2655,7 @@
         <v>7</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE16" s="3" t="s">
         <v>26</v>
@@ -2433,18 +2673,18 @@
         <v>44196</v>
       </c>
       <c r="AL16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2515,18 +2755,18 @@
         <v>44196</v>
       </c>
       <c r="AL17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2573,7 +2813,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
@@ -2587,18 +2827,18 @@
         <v>44196</v>
       </c>
       <c r="AL18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2653,18 +2893,18 @@
         <v>44196</v>
       </c>
       <c r="AL19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2701,7 +2941,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
@@ -2715,18 +2955,18 @@
         <v>44196</v>
       </c>
       <c r="AL20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2771,7 +3011,7 @@
       </c>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE21" s="3" t="s">
         <v>26</v>
@@ -2793,18 +3033,18 @@
         <v>44196</v>
       </c>
       <c r="AL21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2871,18 +3111,18 @@
         <v>44196</v>
       </c>
       <c r="AL22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2931,7 +3171,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
@@ -2945,18 +3185,18 @@
         <v>44196</v>
       </c>
       <c r="AL23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -3009,7 +3249,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
@@ -3023,18 +3263,18 @@
         <v>44196</v>
       </c>
       <c r="AL24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3087,7 +3327,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
@@ -3101,18 +3341,18 @@
         <v>44196</v>
       </c>
       <c r="AL25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -3165,7 +3405,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
@@ -3179,18 +3419,18 @@
         <v>44196</v>
       </c>
       <c r="AL26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3243,7 +3483,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE27" s="3" t="s">
         <v>26</v>
@@ -3261,18 +3501,18 @@
         <v>44196</v>
       </c>
       <c r="AL27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -3345,18 +3585,18 @@
         <v>44196</v>
       </c>
       <c r="AL28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3423,18 +3663,18 @@
         <v>44196</v>
       </c>
       <c r="AL29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3487,7 +3727,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
@@ -3501,18 +3741,18 @@
         <v>44196</v>
       </c>
       <c r="AL30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3559,7 +3799,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
@@ -3573,18 +3813,18 @@
         <v>44196</v>
       </c>
       <c r="AL31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -3627,7 +3867,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
@@ -3641,18 +3881,18 @@
         <v>44196</v>
       </c>
       <c r="AL32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3707,18 +3947,18 @@
         <v>44196</v>
       </c>
       <c r="AL33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3746,13 +3986,13 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -3764,7 +4004,7 @@
         <v>7</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
@@ -3791,18 +4031,18 @@
         <v>44196</v>
       </c>
       <c r="AL34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3843,7 +4083,7 @@
         <v>5</v>
       </c>
       <c r="AD35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
@@ -3857,18 +4097,18 @@
         <v>44196</v>
       </c>
       <c r="AL35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3927,7 +4167,7 @@
         <v>27</v>
       </c>
       <c r="AD36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
@@ -3941,18 +4181,18 @@
         <v>44196</v>
       </c>
       <c r="AL36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -4015,18 +4255,18 @@
         <v>44196</v>
       </c>
       <c r="AL37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -4079,7 +4319,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
@@ -4093,18 +4333,18 @@
         <v>44196</v>
       </c>
       <c r="AL38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4151,7 +4391,7 @@
       </c>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE39" s="3" t="s">
         <v>26</v>
@@ -4173,18 +4413,18 @@
         <v>44197</v>
       </c>
       <c r="AL39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4231,7 +4471,7 @@
       </c>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE40" s="3" t="s">
         <v>26</v>
@@ -4253,18 +4493,18 @@
         <v>44197</v>
       </c>
       <c r="AL40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4317,7 +4557,7 @@
         <v>4</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE41" s="3" t="s">
         <v>26</v>
@@ -4333,18 +4573,18 @@
         <v>44196</v>
       </c>
       <c r="AL41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4393,7 +4633,7 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3" t="s">
@@ -4411,18 +4651,18 @@
         <v>44196</v>
       </c>
       <c r="AL42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4474,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="AD43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
@@ -4488,18 +4728,18 @@
         <v>44196</v>
       </c>
       <c r="AL43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4568,18 +4808,18 @@
         <v>44196</v>
       </c>
       <c r="AL44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4624,7 +4864,7 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
@@ -4640,18 +4880,18 @@
         <v>44196</v>
       </c>
       <c r="AL45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4704,7 +4944,7 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
@@ -4718,18 +4958,18 @@
         <v>44196</v>
       </c>
       <c r="AL46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4776,7 +5016,7 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE47" s="3" t="s">
         <v>26</v>
@@ -4792,18 +5032,18 @@
         <v>44196</v>
       </c>
       <c r="AL47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4856,7 +5096,7 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
@@ -4870,18 +5110,18 @@
         <v>44196</v>
       </c>
       <c r="AL48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4945,18 +5185,18 @@
         <v>44196</v>
       </c>
       <c r="AL49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -5003,7 +5243,7 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
@@ -5017,18 +5257,18 @@
         <v>44196</v>
       </c>
       <c r="AL50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5101,18 +5341,18 @@
         <v>44196</v>
       </c>
       <c r="AL51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5165,7 +5405,7 @@
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE52" s="3" t="s">
         <v>26</v>
@@ -5183,18 +5423,18 @@
         <v>44196</v>
       </c>
       <c r="AL52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -5247,7 +5487,7 @@
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE53" s="3" t="s">
         <v>26</v>
@@ -5265,18 +5505,18 @@
         <v>44196</v>
       </c>
       <c r="AL53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5345,18 +5585,18 @@
         <v>44196</v>
       </c>
       <c r="AL54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D55" s="3">
         <v>107</v>
@@ -5389,7 +5629,7 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
@@ -5403,18 +5643,18 @@
         <v>44196</v>
       </c>
       <c r="AL55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5485,18 +5725,18 @@
         <v>44196</v>
       </c>
       <c r="AL56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5557,18 +5797,18 @@
         <v>44196</v>
       </c>
       <c r="AL57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" t="s">
         <v>172</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" t="s">
-        <v>174</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5613,7 +5853,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE58" s="3" t="s">
         <v>26</v>
@@ -5631,18 +5871,18 @@
         <v>44196</v>
       </c>
       <c r="AL58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5695,7 +5935,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
@@ -5709,18 +5949,18 @@
         <v>44196</v>
       </c>
       <c r="AL59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5773,7 +6013,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
       <c r="AD60" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE60" s="3"/>
       <c r="AF60" s="3" t="s">
@@ -5791,18 +6031,18 @@
         <v>44196</v>
       </c>
       <c r="AL60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5855,7 +6095,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE61" s="3"/>
       <c r="AF61" s="3" t="s">
@@ -5873,18 +6113,18 @@
         <v>44196</v>
       </c>
       <c r="AL61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5937,7 +6177,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3" t="s">
@@ -5955,18 +6195,18 @@
         <v>44196</v>
       </c>
       <c r="AL62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -6029,18 +6269,18 @@
         <v>44196</v>
       </c>
       <c r="AL63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -6093,7 +6333,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
       <c r="AD64" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE64" s="3" t="s">
         <v>26</v>
@@ -6111,18 +6351,18 @@
         <v>44196</v>
       </c>
       <c r="AL64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -6151,7 +6391,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
       <c r="AD65" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
@@ -6165,18 +6405,18 @@
         <v>44196</v>
       </c>
       <c r="AL65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -6221,7 +6461,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
       <c r="AD66" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
@@ -6235,18 +6475,18 @@
         <v>44196</v>
       </c>
       <c r="AL66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" t="s">
         <v>194</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" t="s">
-        <v>196</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -6299,7 +6539,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
@@ -6313,18 +6553,18 @@
         <v>44196</v>
       </c>
       <c r="AL67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -6393,18 +6633,18 @@
         <v>44196</v>
       </c>
       <c r="AL68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -6449,7 +6689,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
@@ -6463,18 +6703,18 @@
         <v>44196</v>
       </c>
       <c r="AL69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -6521,7 +6761,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
       <c r="AD70" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
@@ -6535,18 +6775,18 @@
         <v>44196</v>
       </c>
       <c r="AL70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -6593,7 +6833,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
       <c r="AD71" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
@@ -6607,18 +6847,18 @@
         <v>44196</v>
       </c>
       <c r="AL71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -6671,7 +6911,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
       <c r="AD72" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
@@ -6685,18 +6925,18 @@
         <v>44196</v>
       </c>
       <c r="AL72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -6749,7 +6989,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
       <c r="AD73" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
@@ -6763,18 +7003,18 @@
         <v>44196</v>
       </c>
       <c r="AL73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -6821,7 +7061,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
       <c r="AD74" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE74" s="3"/>
       <c r="AF74" s="3"/>
@@ -6835,18 +7075,18 @@
         <v>44196</v>
       </c>
       <c r="AL74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6895,7 +7135,7 @@
         <v>5.5</v>
       </c>
       <c r="AD75" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
@@ -6909,18 +7149,18 @@
         <v>44196</v>
       </c>
       <c r="AL75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6955,7 +7195,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
       <c r="AD76" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
@@ -6969,18 +7209,18 @@
         <v>44196</v>
       </c>
       <c r="AL76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -7025,7 +7265,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
       <c r="AD77" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE77" s="3" t="s">
         <v>26</v>
@@ -7041,18 +7281,18 @@
         <v>44196</v>
       </c>
       <c r="AL77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -7105,7 +7345,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
       <c r="AD78" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE78" s="3"/>
       <c r="AF78" s="3"/>
@@ -7119,18 +7359,18 @@
         <v>44196</v>
       </c>
       <c r="AL78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C79" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -7175,7 +7415,7 @@
       </c>
       <c r="AC79" s="3"/>
       <c r="AD79" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE79" s="3" t="s">
         <v>26</v>
@@ -7191,18 +7431,18 @@
         <v>44196</v>
       </c>
       <c r="AL79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -7241,7 +7481,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
       <c r="AD80" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
@@ -7255,18 +7495,18 @@
         <v>44196</v>
       </c>
       <c r="AL80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -7319,7 +7559,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
       <c r="AD81" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
@@ -7333,18 +7573,18 @@
         <v>44196</v>
       </c>
       <c r="AL81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -7389,7 +7629,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE82" s="3" t="s">
         <v>26</v>
@@ -7405,18 +7645,18 @@
         <v>44196</v>
       </c>
       <c r="AL82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C83" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -7464,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="AD83" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE83" s="3" t="s">
         <v>26</v>
@@ -7480,38 +7720,65 @@
         <v>44196</v>
       </c>
       <c r="AL83" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>172</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
+      <c r="G84" s="3">
+        <v>26</v>
+      </c>
+      <c r="H84" s="3">
+        <v>20</v>
+      </c>
+      <c r="I84" s="3">
+        <v>6</v>
+      </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
+      <c r="L84" s="3">
+        <v>26</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>26</v>
+      </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
+      <c r="U84" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-      <c r="X84" s="3"/>
+      <c r="W84" s="3">
+        <v>16.77</v>
+      </c>
+      <c r="X84" s="3">
+        <v>17.95</v>
+      </c>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
       <c r="AD84" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
@@ -7525,38 +7792,71 @@
         <v>44196</v>
       </c>
       <c r="AL84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="G85" s="3">
+        <v>61</v>
+      </c>
+      <c r="H85" s="3">
+        <v>56</v>
+      </c>
+      <c r="I85" s="3">
+        <v>5</v>
+      </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
+      <c r="L85" s="3">
+        <v>80</v>
+      </c>
+      <c r="M85" s="3">
+        <v>71</v>
+      </c>
+      <c r="N85" s="3">
+        <v>9</v>
+      </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
+      <c r="Q85" s="3">
+        <v>47</v>
+      </c>
+      <c r="R85" s="3">
+        <v>42</v>
+      </c>
+      <c r="S85" s="3">
+        <v>5</v>
+      </c>
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
-      <c r="W85" s="3"/>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
+      <c r="W85" s="3">
+        <v>13</v>
+      </c>
+      <c r="X85" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>13</v>
+      </c>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
       <c r="AD85" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AE85" s="3"/>
       <c r="AF85" s="3"/>
@@ -7570,10 +7870,19 @@
         <v>44196</v>
       </c>
       <c r="AL85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -7601,7 +7910,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
       <c r="AD86" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
@@ -7615,38 +7924,56 @@
         <v>44196</v>
       </c>
       <c r="AL86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87" t="s">
+        <v>194</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3">
+        <v>5</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="K87" s="3">
+        <v>31</v>
+      </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
+      <c r="P87" s="3">
+        <v>57372</v>
+      </c>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
-      <c r="W87" s="3"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
+      <c r="AA87" s="3">
+        <v>4</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>3</v>
+      </c>
       <c r="AD87" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
@@ -7660,38 +7987,71 @@
         <v>44196</v>
       </c>
       <c r="AL87" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" t="s">
+        <v>194</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
+      <c r="G88" s="3">
+        <v>31</v>
+      </c>
+      <c r="H88" s="3">
+        <v>31</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
+      <c r="L88" s="3">
+        <v>117</v>
+      </c>
+      <c r="M88" s="3">
+        <v>117</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
+      <c r="Q88" s="3">
+        <v>6720</v>
+      </c>
+      <c r="R88" s="3">
+        <v>6720</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
+      <c r="W88" s="3">
+        <v>19</v>
+      </c>
+      <c r="X88" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>2</v>
+      </c>
       <c r="Z88" s="3"/>
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
       <c r="AD88" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AE88" s="3"/>
       <c r="AF88" s="3"/>
@@ -7705,10 +8065,19 @@
         <v>44196</v>
       </c>
       <c r="AL88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -7736,7 +8105,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
       <c r="AD89" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE89" s="3"/>
       <c r="AF89" s="3"/>
@@ -7750,21 +8119,42 @@
         <v>44196</v>
       </c>
       <c r="AL89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" t="s">
+        <v>233</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
+      <c r="G90" s="3">
+        <v>22</v>
+      </c>
+      <c r="H90" s="3">
+        <v>14</v>
+      </c>
+      <c r="I90" s="3">
+        <v>8</v>
+      </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
+      <c r="L90" s="3">
+        <v>27</v>
+      </c>
+      <c r="M90" s="3">
+        <v>19</v>
+      </c>
+      <c r="N90" s="3">
+        <v>8</v>
+      </c>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
@@ -7773,15 +8163,19 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-      <c r="X90" s="3"/>
+      <c r="W90" s="3">
+        <v>20.909099999999999</v>
+      </c>
+      <c r="X90" s="3">
+        <v>13.962999999999999</v>
+      </c>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
@@ -7795,38 +8189,65 @@
         <v>44196</v>
       </c>
       <c r="AL90" t="s">
-        <v>36</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>250</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" t="s">
+        <v>130</v>
+      </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
+      <c r="G91" s="3">
+        <v>72</v>
+      </c>
+      <c r="H91" s="3">
+        <v>72</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
+      <c r="L91" s="3">
+        <v>619</v>
+      </c>
+      <c r="M91" s="3">
+        <v>619</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
+      <c r="U91" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
-      <c r="AA91" s="3"/>
-      <c r="AB91" s="3"/>
+      <c r="AA91" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>4.03</v>
+      </c>
       <c r="AC91" s="3"/>
       <c r="AD91" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AE91" s="3"/>
       <c r="AF91" s="3"/>
@@ -7840,21 +8261,42 @@
         <v>44196</v>
       </c>
       <c r="AL91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
+      <c r="G92" s="3">
+        <v>71</v>
+      </c>
+      <c r="H92" s="3">
+        <v>55</v>
+      </c>
+      <c r="I92" s="3">
+        <v>16</v>
+      </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
+      <c r="L92" s="3">
+        <v>83</v>
+      </c>
+      <c r="M92" s="3">
+        <v>74</v>
+      </c>
+      <c r="N92" s="3">
+        <v>9</v>
+      </c>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
@@ -7863,15 +8305,19 @@
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
-      <c r="X92" s="3"/>
+      <c r="W92" s="3">
+        <v>30</v>
+      </c>
+      <c r="X92" s="3">
+        <v>26</v>
+      </c>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
       <c r="AD92" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE92" s="3"/>
       <c r="AF92" s="3"/>
@@ -7885,38 +8331,67 @@
         <v>44196</v>
       </c>
       <c r="AL92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>254</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
+      <c r="G93" s="3">
+        <v>9</v>
+      </c>
+      <c r="H93" s="3">
+        <v>3</v>
+      </c>
+      <c r="I93" s="3">
+        <v>6</v>
+      </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
+      <c r="L93" s="3">
+        <v>5</v>
+      </c>
+      <c r="M93" s="3">
+        <v>3</v>
+      </c>
+      <c r="N93" s="3">
+        <v>2</v>
+      </c>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
+      <c r="Z93" s="3">
+        <v>22</v>
+      </c>
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
       <c r="AD93" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE93" s="3"/>
       <c r="AF93" s="3"/>
@@ -7930,38 +8405,71 @@
         <v>44196</v>
       </c>
       <c r="AL93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>256</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" t="s">
+        <v>54</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
+      <c r="G94" s="3">
+        <v>64</v>
+      </c>
+      <c r="H94" s="3">
+        <v>53</v>
+      </c>
+      <c r="I94" s="3">
+        <v>11</v>
+      </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
+      <c r="L94" s="3">
+        <v>152</v>
+      </c>
+      <c r="M94" s="3">
+        <v>123</v>
+      </c>
+      <c r="N94" s="3">
+        <v>29</v>
+      </c>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
+      <c r="Q94" s="3">
+        <v>378</v>
+      </c>
+      <c r="R94" s="3">
+        <v>285</v>
+      </c>
+      <c r="S94" s="3">
+        <v>93</v>
+      </c>
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
-      <c r="W94" s="3"/>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
+      <c r="W94" s="3">
+        <v>15</v>
+      </c>
+      <c r="X94" s="3">
+        <v>12</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>13</v>
+      </c>
       <c r="Z94" s="3"/>
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
       <c r="AD94" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE94" s="3"/>
       <c r="AF94" s="3"/>
@@ -7975,23 +8483,38 @@
         <v>44196</v>
       </c>
       <c r="AL94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>258</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" t="s">
+        <v>54</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="F95" s="3">
+        <v>39</v>
+      </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+      <c r="K95" s="3">
+        <v>25</v>
+      </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
+      <c r="P95" s="3">
+        <v>22</v>
+      </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
@@ -8006,7 +8529,7 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
@@ -8020,23 +8543,38 @@
         <v>44196</v>
       </c>
       <c r="AL95" t="s">
-        <v>36</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+      <c r="K96" s="3">
+        <v>17</v>
+      </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
+      <c r="P96" s="3">
+        <v>1</v>
+      </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
@@ -8044,14 +8582,18 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
+      <c r="X96" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>4</v>
+      </c>
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
       <c r="AD96" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE96" s="3"/>
       <c r="AF96" s="3"/>
@@ -8065,38 +8607,65 @@
         <v>44196</v>
       </c>
       <c r="AL96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>263</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+      <c r="G97" s="3">
+        <v>24</v>
+      </c>
+      <c r="H97" s="3">
+        <v>4</v>
+      </c>
+      <c r="I97" s="3">
+        <v>20</v>
+      </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
+      <c r="L97" s="3">
+        <v>307</v>
+      </c>
+      <c r="M97" s="3">
+        <v>299</v>
+      </c>
+      <c r="N97" s="3">
+        <v>8</v>
+      </c>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
-      <c r="U97" s="3"/>
+      <c r="U97" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V97" s="3"/>
-      <c r="W97" s="3"/>
-      <c r="X97" s="3"/>
+      <c r="W97" s="3">
+        <v>1</v>
+      </c>
+      <c r="X97" s="3">
+        <v>1</v>
+      </c>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
       <c r="AD97" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AE97" s="3"/>
       <c r="AF97" s="3"/>
@@ -8110,13 +8679,24 @@
         <v>44196</v>
       </c>
       <c r="AL97" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>265</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C98" t="s">
+        <v>54</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -8126,7 +8706,9 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
+      <c r="P98" s="3">
+        <v>55</v>
+      </c>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
@@ -8141,7 +8723,7 @@
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
       <c r="AD98" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE98" s="3"/>
       <c r="AF98" s="3"/>
@@ -8155,26 +8737,53 @@
         <v>44196</v>
       </c>
       <c r="AL98" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="4:38" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>269</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" t="s">
+        <v>54</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
+      <c r="G99" s="3">
+        <v>9</v>
+      </c>
+      <c r="H99" s="3">
+        <v>8</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1</v>
+      </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
+      <c r="L99" s="3">
+        <v>57</v>
+      </c>
+      <c r="M99" s="3">
+        <v>57</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
+      <c r="Q99" s="3">
+        <v>1</v>
+      </c>
+      <c r="R99" s="3">
+        <v>1</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
@@ -8182,11 +8791,17 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="3"/>
+      <c r="AA99" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>6</v>
+      </c>
       <c r="AD99" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE99" s="3"/>
       <c r="AF99" s="3"/>
@@ -8200,26 +8815,53 @@
         <v>44196</v>
       </c>
       <c r="AL99" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="4:38" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>272</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
@@ -8231,7 +8873,7 @@
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
       <c r="AD100" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AE100" s="3"/>
       <c r="AF100" s="3"/>
@@ -8245,21 +8887,42 @@
         <v>44196</v>
       </c>
       <c r="AL100" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" t="s">
+        <v>41</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="G101" s="3">
+        <v>23</v>
+      </c>
+      <c r="H101" s="3">
+        <v>23</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
+      <c r="L101" s="3">
+        <v>298</v>
+      </c>
+      <c r="M101" s="3">
+        <v>221</v>
+      </c>
+      <c r="N101" s="3">
+        <v>77</v>
+      </c>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
@@ -8267,7 +8930,9 @@
       <c r="S101" s="3"/>
       <c r="T101" s="3"/>
       <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
+      <c r="V101" s="3">
+        <v>29</v>
+      </c>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
@@ -8276,9 +8941,11 @@
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
       <c r="AD101" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE101" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF101" s="3"/>
       <c r="AG101" s="3"/>
       <c r="AH101" s="3"/>
@@ -8290,29 +8957,54 @@
         <v>44196</v>
       </c>
       <c r="AL101" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
+      <c r="G102" s="3">
+        <v>10</v>
+      </c>
+      <c r="H102" s="3">
+        <v>10</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
+      <c r="L102" s="3">
+        <v>18</v>
+      </c>
+      <c r="M102" s="3">
+        <v>18</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3"/>
+      <c r="U102" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V102" s="3">
+        <v>2</v>
+      </c>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
@@ -8321,7 +9013,7 @@
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
       <c r="AD102" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AE102" s="3"/>
       <c r="AF102" s="3"/>
@@ -8335,43 +9027,82 @@
         <v>44196</v>
       </c>
       <c r="AL102" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="103" spans="4:38" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>280</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" t="s">
+        <v>281</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
+      <c r="G103" s="3">
+        <v>50</v>
+      </c>
+      <c r="H103" s="3">
+        <v>42</v>
+      </c>
+      <c r="I103" s="3">
+        <v>8</v>
+      </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
+      <c r="L103" s="3">
+        <v>34</v>
+      </c>
+      <c r="M103" s="3">
+        <v>29</v>
+      </c>
+      <c r="N103" s="3">
+        <v>5</v>
+      </c>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
+      <c r="Q103" s="3">
+        <v>0</v>
+      </c>
+      <c r="R103" s="3">
+        <v>0</v>
+      </c>
+      <c r="S103" s="3">
+        <v>0</v>
+      </c>
       <c r="T103" s="3"/>
-      <c r="U103" s="3"/>
+      <c r="U103" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
-      <c r="AA103" s="3"/>
-      <c r="AB103" s="3"/>
+      <c r="AA103" s="3">
+        <v>14</v>
+      </c>
+      <c r="AB103" s="3">
+        <v>30</v>
+      </c>
       <c r="AC103" s="3"/>
       <c r="AD103" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE103" s="3"/>
-      <c r="AF103" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="AE103" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF103" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG103" s="3"/>
-      <c r="AH103" s="3"/>
+      <c r="AH103" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI103" s="3"/>
       <c r="AJ103" s="4">
         <v>43831</v>
@@ -8380,43 +9111,78 @@
         <v>44196</v>
       </c>
       <c r="AL103" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="104" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>283</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C104" t="s">
+        <v>194</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
+      <c r="G104" s="3">
+        <v>25</v>
+      </c>
+      <c r="H104" s="3">
+        <v>20</v>
+      </c>
+      <c r="I104" s="3">
+        <v>5</v>
+      </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
+      <c r="L104" s="3">
+        <v>62</v>
+      </c>
+      <c r="M104" s="3">
+        <v>40</v>
+      </c>
+      <c r="N104" s="3">
+        <v>22</v>
+      </c>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="3"/>
+      <c r="Q104" s="3">
+        <v>6128</v>
+      </c>
+      <c r="R104" s="3">
+        <v>3856</v>
+      </c>
+      <c r="S104" s="3">
+        <v>2272</v>
+      </c>
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
-      <c r="W104" s="3"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
+      <c r="W104" s="3">
+        <v>31</v>
+      </c>
+      <c r="X104" s="3">
+        <v>32</v>
+      </c>
+      <c r="Y104" s="3">
+        <v>2</v>
+      </c>
       <c r="Z104" s="3"/>
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
       <c r="AD104" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AE104" s="3"/>
       <c r="AF104" s="3"/>
       <c r="AG104" s="3"/>
-      <c r="AH104" s="3"/>
+      <c r="AH104" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI104" s="3"/>
       <c r="AJ104" s="4">
         <v>43831</v>
@@ -8425,38 +9191,71 @@
         <v>44196</v>
       </c>
       <c r="AL104" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="105" spans="4:38" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>286</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C105" t="s">
+        <v>54</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
+      <c r="G105" s="3">
+        <v>2</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3">
+        <v>2</v>
+      </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
+      <c r="L105" s="3">
+        <v>6</v>
+      </c>
+      <c r="M105" s="3">
+        <v>2</v>
+      </c>
+      <c r="N105" s="3">
+        <v>4</v>
+      </c>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="3"/>
+      <c r="Q105" s="3">
+        <v>18</v>
+      </c>
+      <c r="R105" s="3">
+        <v>18</v>
+      </c>
+      <c r="S105" s="3">
+        <v>0</v>
+      </c>
       <c r="T105" s="3"/>
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
-      <c r="W105" s="3"/>
-      <c r="X105" s="3"/>
-      <c r="Y105" s="3"/>
+      <c r="W105" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="X105" s="3">
+        <v>37</v>
+      </c>
+      <c r="Y105" s="3">
+        <v>22</v>
+      </c>
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
       <c r="AD105" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE105" s="3"/>
       <c r="AF105" s="3"/>
@@ -8470,21 +9269,42 @@
         <v>44196</v>
       </c>
       <c r="AL105" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="106" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" t="s">
+        <v>194</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
+      <c r="G106" s="3">
+        <v>422585</v>
+      </c>
+      <c r="H106" s="3">
+        <v>422585</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
+      <c r="L106" s="3">
+        <v>4576385</v>
+      </c>
+      <c r="M106" s="3">
+        <v>4576385</v>
+      </c>
+      <c r="N106" s="3">
+        <v>0</v>
+      </c>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
@@ -8493,15 +9313,19 @@
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
-      <c r="W106" s="3"/>
-      <c r="X106" s="3"/>
+      <c r="W106" s="3">
+        <v>3</v>
+      </c>
+      <c r="X106" s="3">
+        <v>16</v>
+      </c>
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
       <c r="AD106" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AE106" s="3"/>
       <c r="AF106" s="3"/>
@@ -8515,26 +9339,53 @@
         <v>44196</v>
       </c>
       <c r="AL106" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>290</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C107" t="s">
+        <v>50</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
+      <c r="G107" s="3">
+        <v>18</v>
+      </c>
+      <c r="H107" s="3">
+        <v>17</v>
+      </c>
+      <c r="I107" s="3">
+        <v>1</v>
+      </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
+      <c r="L107" s="3">
+        <v>82</v>
+      </c>
+      <c r="M107" s="3">
+        <v>82</v>
+      </c>
+      <c r="N107" s="3">
+        <v>0</v>
+      </c>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
+      <c r="Q107" s="3">
+        <v>3623</v>
+      </c>
+      <c r="R107" s="3">
+        <v>3622</v>
+      </c>
+      <c r="S107" s="3">
+        <v>1</v>
+      </c>
       <c r="T107" s="3"/>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
@@ -8544,9 +9395,11 @@
       <c r="Z107" s="3"/>
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
-      <c r="AC107" s="3"/>
+      <c r="AC107" s="3">
+        <v>5</v>
+      </c>
       <c r="AD107" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE107" s="3"/>
       <c r="AF107" s="3"/>
@@ -8560,21 +9413,42 @@
         <v>44196</v>
       </c>
       <c r="AL107" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="4:38" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>293</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C108" t="s">
+        <v>50</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
+      <c r="G108" s="3">
+        <v>498</v>
+      </c>
+      <c r="H108" s="3">
+        <v>336</v>
+      </c>
+      <c r="I108" s="3">
+        <v>162</v>
+      </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
+      <c r="L108" s="3">
+        <v>2659</v>
+      </c>
+      <c r="M108" s="3">
+        <v>1266</v>
+      </c>
+      <c r="N108" s="3">
+        <v>1393</v>
+      </c>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
@@ -8583,21 +9457,31 @@
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
-      <c r="W108" s="3"/>
-      <c r="X108" s="3"/>
+      <c r="W108" s="3">
+        <v>9</v>
+      </c>
+      <c r="X108" s="3">
+        <v>13</v>
+      </c>
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
       <c r="AD108" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE108" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="AE108" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF108" s="3"/>
       <c r="AG108" s="3"/>
-      <c r="AH108" s="3"/>
-      <c r="AI108" s="3"/>
+      <c r="AH108" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI108" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ108" s="4">
         <v>43831</v>
       </c>
@@ -8605,29 +9489,54 @@
         <v>44196</v>
       </c>
       <c r="AL108" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>295</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C109" t="s">
+        <v>172</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+      <c r="G109" s="3">
+        <v>97</v>
+      </c>
+      <c r="H109" s="3">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3">
+        <v>97</v>
+      </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
+      <c r="L109" s="3">
+        <v>160</v>
+      </c>
+      <c r="M109" s="3">
+        <v>0</v>
+      </c>
+      <c r="N109" s="3">
+        <v>160</v>
+      </c>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
-      <c r="U109" s="3"/>
-      <c r="V109" s="3"/>
+      <c r="U109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V109" s="3">
+        <v>1.52</v>
+      </c>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
@@ -8636,10 +9545,14 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
       <c r="AD109" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE109" s="3"/>
-      <c r="AF109" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="AE109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF109" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG109" s="3"/>
       <c r="AH109" s="3"/>
       <c r="AI109" s="3"/>
@@ -8650,21 +9563,42 @@
         <v>44196</v>
       </c>
       <c r="AL109" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="4:38" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>298</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C110" t="s">
+        <v>172</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
+      <c r="G110" s="3">
+        <v>251</v>
+      </c>
+      <c r="H110" s="3">
+        <v>201</v>
+      </c>
+      <c r="I110" s="3">
+        <v>50</v>
+      </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
+      <c r="L110" s="3">
+        <v>375</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0</v>
+      </c>
+      <c r="N110" s="3">
+        <v>375</v>
+      </c>
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
@@ -8674,17 +9608,25 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
-      <c r="X110" s="3"/>
+      <c r="X110" s="3">
+        <v>5</v>
+      </c>
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
-      <c r="AA110" s="3"/>
+      <c r="AA110" s="3">
+        <v>8</v>
+      </c>
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
       <c r="AD110" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE110" s="3"/>
-      <c r="AF110" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="AE110" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF110" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AG110" s="3"/>
       <c r="AH110" s="3"/>
       <c r="AI110" s="3"/>
@@ -8695,26 +9637,53 @@
         <v>44196</v>
       </c>
       <c r="AL110" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>300</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
+      <c r="G111" s="3">
+        <v>1219</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1219</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
+      <c r="L111" s="3">
+        <v>609</v>
+      </c>
+      <c r="M111" s="3">
+        <v>609</v>
+      </c>
+      <c r="N111" s="3">
+        <v>0</v>
+      </c>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="3"/>
+      <c r="Q111" s="3">
+        <v>70645</v>
+      </c>
+      <c r="R111" s="3">
+        <v>70645</v>
+      </c>
+      <c r="S111" s="3">
+        <v>0</v>
+      </c>
       <c r="T111" s="3"/>
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
@@ -8722,11 +9691,17 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
-      <c r="AA111" s="3"/>
-      <c r="AB111" s="3"/>
-      <c r="AC111" s="3"/>
+      <c r="AA111" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB111" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC111" s="3">
+        <v>5</v>
+      </c>
       <c r="AD111" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE111" s="3"/>
       <c r="AF111" s="3"/>
@@ -8740,26 +9715,53 @@
         <v>44196</v>
       </c>
       <c r="AL111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>302</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
+      <c r="G112" s="3">
+        <v>86</v>
+      </c>
+      <c r="H112" s="3">
+        <v>34</v>
+      </c>
+      <c r="I112" s="3">
+        <v>52</v>
+      </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
+      <c r="L112" s="3">
+        <v>150</v>
+      </c>
+      <c r="M112" s="3">
+        <v>48</v>
+      </c>
+      <c r="N112" s="3">
+        <v>102</v>
+      </c>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="3"/>
+      <c r="Q112" s="3">
+        <v>560</v>
+      </c>
+      <c r="R112" s="3">
+        <v>92</v>
+      </c>
+      <c r="S112" s="3">
+        <v>468</v>
+      </c>
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
@@ -8767,11 +9769,17 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
-      <c r="AA112" s="3"/>
-      <c r="AB112" s="3"/>
-      <c r="AC112" s="3"/>
+      <c r="AA112" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB112" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC112" s="3">
+        <v>7</v>
+      </c>
       <c r="AD112" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE112" s="3"/>
       <c r="AF112" s="3"/>
@@ -8785,44 +9793,83 @@
         <v>44196</v>
       </c>
       <c r="AL112" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>304</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" t="s">
+        <v>54</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
+      <c r="G113" s="3">
+        <v>6</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="3">
+        <v>5</v>
+      </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
+      <c r="L113" s="3">
+        <v>29</v>
+      </c>
+      <c r="M113" s="3">
+        <v>28</v>
+      </c>
+      <c r="N113" s="3">
+        <v>1</v>
+      </c>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
+      <c r="Q113" s="3">
+        <v>53</v>
+      </c>
+      <c r="R113" s="3">
+        <v>51</v>
+      </c>
+      <c r="S113" s="3">
+        <v>2</v>
+      </c>
       <c r="T113" s="3"/>
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
-      <c r="W113" s="3"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
+      <c r="W113" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="X113" s="3">
+        <v>11</v>
+      </c>
+      <c r="Y113" s="3">
+        <v>9.5</v>
+      </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
       <c r="AD113" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE113" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="AE113" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF113" s="3"/>
       <c r="AG113" s="3"/>
-      <c r="AH113" s="3"/>
-      <c r="AI113" s="3"/>
+      <c r="AH113" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI113" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ113" s="4">
         <v>43831</v>
       </c>
@@ -8830,26 +9877,53 @@
         <v>44196</v>
       </c>
       <c r="AL113" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>307</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C114" t="s">
+        <v>54</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
+      <c r="G114" s="3">
+        <v>1028</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1028</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
+      <c r="L114" s="3">
+        <v>595</v>
+      </c>
+      <c r="M114" s="3">
+        <v>595</v>
+      </c>
+      <c r="N114" s="3">
+        <v>0</v>
+      </c>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
+      <c r="Q114" s="3">
+        <v>25875</v>
+      </c>
+      <c r="R114" s="3">
+        <v>25875</v>
+      </c>
+      <c r="S114" s="3">
+        <v>0</v>
+      </c>
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
@@ -8857,11 +9931,17 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
-      <c r="AA114" s="3"/>
-      <c r="AB114" s="3"/>
-      <c r="AC114" s="3"/>
+      <c r="AA114" s="3">
+        <v>37</v>
+      </c>
+      <c r="AB114" s="3">
+        <v>24</v>
+      </c>
+      <c r="AC114" s="3">
+        <v>17</v>
+      </c>
       <c r="AD114" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE114" s="3"/>
       <c r="AF114" s="3"/>
@@ -8875,26 +9955,53 @@
         <v>44196</v>
       </c>
       <c r="AL114" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>309</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C115" t="s">
+        <v>115</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0</v>
+      </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
+      <c r="L115" s="3">
+        <v>0</v>
+      </c>
+      <c r="M115" s="3">
+        <v>0</v>
+      </c>
+      <c r="N115" s="3">
+        <v>0</v>
+      </c>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
+      <c r="Q115" s="3">
+        <v>2</v>
+      </c>
+      <c r="R115" s="3">
+        <v>2</v>
+      </c>
+      <c r="S115" s="3">
+        <v>0</v>
+      </c>
       <c r="T115" s="3"/>
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
@@ -8902,11 +10009,15 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
-      <c r="AA115" s="3"/>
+      <c r="AA115" s="3">
+        <v>11</v>
+      </c>
       <c r="AB115" s="3"/>
-      <c r="AC115" s="3"/>
+      <c r="AC115" s="3">
+        <v>11</v>
+      </c>
       <c r="AD115" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AE115" s="3"/>
       <c r="AF115" s="3"/>
@@ -8920,43 +10031,74 @@
         <v>44196</v>
       </c>
       <c r="AL115" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>311</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C116" t="s">
+        <v>172</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
+      <c r="G116" s="3">
+        <v>56</v>
+      </c>
+      <c r="H116" s="3">
+        <v>48</v>
+      </c>
+      <c r="I116" s="3">
+        <v>8</v>
+      </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
+      <c r="L116" s="3">
+        <v>67</v>
+      </c>
+      <c r="M116" s="3">
+        <v>56</v>
+      </c>
+      <c r="N116" s="3">
+        <v>11</v>
+      </c>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
-      <c r="U116" s="3"/>
+      <c r="U116" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V116" s="3"/>
-      <c r="W116" s="3"/>
-      <c r="X116" s="3"/>
+      <c r="W116" s="3">
+        <v>39</v>
+      </c>
+      <c r="X116" s="3">
+        <v>28</v>
+      </c>
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
       <c r="AD116" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE116" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="AE116" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AF116" s="3"/>
       <c r="AG116" s="3"/>
-      <c r="AH116" s="3"/>
+      <c r="AH116" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AI116" s="3"/>
       <c r="AJ116" s="4">
         <v>43831</v>
@@ -8965,26 +10107,53 @@
         <v>44196</v>
       </c>
       <c r="AL116" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C117" t="s">
+        <v>115</v>
+      </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
+      <c r="G117" s="3">
+        <v>1364</v>
+      </c>
+      <c r="H117" s="3">
+        <v>1364</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0</v>
+      </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
+      <c r="L117" s="3">
+        <v>73098</v>
+      </c>
+      <c r="M117" s="3">
+        <v>57365</v>
+      </c>
+      <c r="N117" s="3">
+        <v>15733</v>
+      </c>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-      <c r="S117" s="3"/>
+      <c r="Q117" s="3">
+        <v>4146</v>
+      </c>
+      <c r="R117" s="3">
+        <v>4146</v>
+      </c>
+      <c r="S117" s="3">
+        <v>0</v>
+      </c>
       <c r="T117" s="3"/>
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
@@ -8992,11 +10161,17 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
-      <c r="AA117" s="3"/>
-      <c r="AB117" s="3"/>
-      <c r="AC117" s="3"/>
+      <c r="AA117" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB117" s="3">
+        <v>31</v>
+      </c>
+      <c r="AC117" s="3">
+        <v>1</v>
+      </c>
       <c r="AD117" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AE117" s="3"/>
       <c r="AF117" s="3"/>
@@ -9010,38 +10185,71 @@
         <v>44196</v>
       </c>
       <c r="AL117" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>315</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C118" t="s">
+        <v>54</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
+      <c r="G118" s="3">
+        <v>13</v>
+      </c>
+      <c r="H118" s="3">
+        <v>1</v>
+      </c>
+      <c r="I118" s="3">
+        <v>12</v>
+      </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-      <c r="N118" s="3"/>
+      <c r="L118" s="3">
+        <v>19</v>
+      </c>
+      <c r="M118" s="3">
+        <v>0</v>
+      </c>
+      <c r="N118" s="3">
+        <v>19</v>
+      </c>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="3"/>
+      <c r="Q118" s="3">
+        <v>11</v>
+      </c>
+      <c r="R118" s="3">
+        <v>0</v>
+      </c>
+      <c r="S118" s="3">
+        <v>11</v>
+      </c>
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
-      <c r="W118" s="3"/>
-      <c r="X118" s="3"/>
-      <c r="Y118" s="3"/>
+      <c r="W118" s="3">
+        <v>43</v>
+      </c>
+      <c r="X118" s="3">
+        <v>45</v>
+      </c>
+      <c r="Y118" s="3">
+        <v>45</v>
+      </c>
       <c r="Z118" s="3"/>
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
       <c r="AD118" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE118" s="3"/>
       <c r="AF118" s="3"/>
@@ -9055,10 +10263,10 @@
         <v>44196</v>
       </c>
       <c r="AL118" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -9086,7 +10294,7 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
       <c r="AD119" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE119" s="3"/>
       <c r="AF119" s="3"/>
@@ -9100,10 +10308,10 @@
         <v>44196</v>
       </c>
       <c r="AL119" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -9131,7 +10339,7 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
       <c r="AD120" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE120" s="3"/>
       <c r="AF120" s="3"/>
@@ -9145,10 +10353,10 @@
         <v>44196</v>
       </c>
       <c r="AL120" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -9176,7 +10384,7 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
       <c r="AD121" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE121" s="3"/>
       <c r="AF121" s="3"/>
@@ -9190,10 +10398,10 @@
         <v>44196</v>
       </c>
       <c r="AL121" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="122" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -9221,7 +10429,7 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
       <c r="AD122" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE122" s="3"/>
       <c r="AF122" s="3"/>
@@ -9235,10 +10443,10 @@
         <v>44196</v>
       </c>
       <c r="AL122" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="123" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -9266,7 +10474,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
       <c r="AD123" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE123" s="3"/>
       <c r="AF123" s="3"/>
@@ -9280,10 +10488,10 @@
         <v>44196</v>
       </c>
       <c r="AL123" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="124" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -9311,7 +10519,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
       <c r="AD124" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE124" s="3"/>
       <c r="AF124" s="3"/>
@@ -9325,10 +10533,10 @@
         <v>44196</v>
       </c>
       <c r="AL124" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="125" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -9356,7 +10564,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
       <c r="AD125" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE125" s="3"/>
       <c r="AF125" s="3"/>
@@ -9370,10 +10578,10 @@
         <v>44196</v>
       </c>
       <c r="AL125" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126" spans="4:38" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -9401,7 +10609,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
       <c r="AD126" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE126" s="3"/>
       <c r="AF126" s="3"/>
@@ -9415,7 +10623,7 @@
         <v>44196</v>
       </c>
       <c r="AL126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -9502,6 +10710,41 @@
     <hyperlink ref="B80" r:id="rId79" xr:uid="{2450D4EB-CDB3-534F-8713-28C1A2A661A2}"/>
     <hyperlink ref="B81" r:id="rId80" xr:uid="{C89282FF-5D80-0B45-B75D-14BC2E60EA09}"/>
     <hyperlink ref="B83" r:id="rId81" location="what-are-your-rights" xr:uid="{EFEB40C9-2FE6-E242-9515-1B141794B92B}"/>
+    <hyperlink ref="B84" r:id="rId82" xr:uid="{17063222-4ACE-AB4D-847D-FE42D61561EA}"/>
+    <hyperlink ref="B85" r:id="rId83" xr:uid="{22942DBE-E9B1-8449-9784-96B56FA63053}"/>
+    <hyperlink ref="B86" r:id="rId84" xr:uid="{546EF042-AC2F-F14D-8B5A-9AD749AD4960}"/>
+    <hyperlink ref="B87" r:id="rId85" xr:uid="{90C33447-C1F9-FE4E-B19A-B4E9D835FFD6}"/>
+    <hyperlink ref="B88" r:id="rId86" xr:uid="{D174E8AE-781B-0542-B5A0-240E90809871}"/>
+    <hyperlink ref="B89" r:id="rId87" xr:uid="{E8522FBA-FA1A-4F49-89E3-5FD3DC0F506B}"/>
+    <hyperlink ref="B90" r:id="rId88" xr:uid="{9A6177B7-0EE2-2D46-9E66-2518D74FC6E3}"/>
+    <hyperlink ref="B91" r:id="rId89" xr:uid="{93AC7E1F-D26F-374B-8347-F17A53BFA977}"/>
+    <hyperlink ref="B92" r:id="rId90" xr:uid="{0E2F750B-B02B-8648-84F6-7E890CA6ADC5}"/>
+    <hyperlink ref="B93" r:id="rId91" xr:uid="{CBD6272E-C6EA-2343-B78D-204AA31DDCDD}"/>
+    <hyperlink ref="B94" r:id="rId92" xr:uid="{C84227F9-0430-0449-8718-C777FB19CB74}"/>
+    <hyperlink ref="B95" r:id="rId93" xr:uid="{DDB63D4C-5FBB-B44F-8CFF-90C555A45310}"/>
+    <hyperlink ref="B96" r:id="rId94" xr:uid="{5925A99B-1DC6-9D46-A849-AC151C608DC9}"/>
+    <hyperlink ref="B97" r:id="rId95" xr:uid="{F8064286-5BB7-E542-812F-0EEA71CAC80E}"/>
+    <hyperlink ref="B98" r:id="rId96" xr:uid="{FB04FEA0-761E-634D-8D03-F8E2EA6661C5}"/>
+    <hyperlink ref="B99" r:id="rId97" location="ccpa" xr:uid="{0B09B811-8D7C-D74E-908B-DC6A00E9423E}"/>
+    <hyperlink ref="B100" r:id="rId98" xr:uid="{BB92F4A5-FB66-D742-AE3C-E908C11C09C8}"/>
+    <hyperlink ref="B101" r:id="rId99" xr:uid="{9606BCE6-277B-D445-881B-225AFE4FE7C0}"/>
+    <hyperlink ref="B102" r:id="rId100" xr:uid="{D9023340-E6FD-584D-948D-B54620F784E4}"/>
+    <hyperlink ref="B103" r:id="rId101" xr:uid="{7C002D54-64DC-1C48-9676-A58F9E6D125E}"/>
+    <hyperlink ref="B104" r:id="rId102" xr:uid="{43A51293-E933-8E45-813E-DA8D003C599D}"/>
+    <hyperlink ref="B105" r:id="rId103" xr:uid="{2A76035A-F332-AD4C-8E0F-01203A8AE1F5}"/>
+    <hyperlink ref="B106" r:id="rId104" xr:uid="{46988BB3-D953-D24D-9078-8AE180E98EE7}"/>
+    <hyperlink ref="B107" r:id="rId105" xr:uid="{73422AD8-064B-9248-8ECD-0B42381BCB45}"/>
+    <hyperlink ref="B108" r:id="rId106" location="additional_disclosures_for_california_residents" xr:uid="{8A894B87-3F2C-9741-A93E-7F542F5F96B3}"/>
+    <hyperlink ref="B109" r:id="rId107" xr:uid="{0DAF99B9-4790-9149-A38C-87D8B03E15B9}"/>
+    <hyperlink ref="B110" r:id="rId108" xr:uid="{87A3A0BE-1B77-EF41-8749-5FF1A0013194}"/>
+    <hyperlink ref="B111" r:id="rId109" xr:uid="{8C60CC07-FB8F-4F4D-9A87-A9AF31472914}"/>
+    <hyperlink ref="B112" r:id="rId110" xr:uid="{84A278CD-A06E-5D40-9911-CB03A983D32D}"/>
+    <hyperlink ref="B113" r:id="rId111" xr:uid="{14739837-03DD-5440-9ABC-3E6162C484F2}"/>
+    <hyperlink ref="B114" r:id="rId112" xr:uid="{C78708DA-A87B-C844-BE9F-73687D8B9901}"/>
+    <hyperlink ref="B115" r:id="rId113" xr:uid="{21FFAF34-7FF9-B14F-BD18-71642363394E}"/>
+    <hyperlink ref="B116" r:id="rId114" xr:uid="{1A2F97E6-F9F6-7640-B1D7-046BEF168339}"/>
+    <hyperlink ref="B117" r:id="rId115" xr:uid="{473DFDE4-7F5B-7745-A46D-2339BBB22544}"/>
+    <hyperlink ref="B118" r:id="rId116" xr:uid="{615CC806-5B8F-5B41-BB33-34D56BB06B06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9519,22 +10762,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
